--- a/www/销售出库单手工调整单.xlsx
+++ b/www/销售出库单手工调整单.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\桌面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D3A1E7-629E-4040-9D50-E787F7629E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>到货日期</t>
   </si>
@@ -138,11 +132,15 @@
   <si>
     <t>否</t>
   </si>
+  <si>
+    <t>客户物料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="177" formatCode="#,##0.000000"/>
@@ -295,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -347,7 +345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -541,18 +539,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y532"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,23 +563,24 @@
     <col min="6" max="6" width="33.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="5.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="10.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="9.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="10.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="9.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,58 +606,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45260</v>
       </c>
@@ -683,5859 +685,5859 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>6006</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>14.159292000000001</v>
       </c>
-      <c r="R2" s="5">
+      <c r="S2" s="5">
         <v>16</v>
       </c>
-      <c r="S2" s="6">
+      <c r="T2" s="6">
         <v>11055.29</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <v>85040.71</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <v>96096</v>
       </c>
-      <c r="V2" s="6">
+      <c r="W2" s="6">
         <v>85040.71</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="6">
         <v>96096</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
-      <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="9"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
-    </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="7"/>
-      <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="9"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="7"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="7"/>
-      <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-    </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="7"/>
-      <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H8" s="7"/>
-      <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="7"/>
-      <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="7"/>
-      <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="7"/>
-      <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="7"/>
-      <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="9"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
-    </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="7"/>
-      <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="7"/>
-      <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="8"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="7"/>
-      <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="8"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
-    </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="7"/>
-      <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="9"/>
+      <c r="S16" s="8"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H17" s="7"/>
-      <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="9"/>
+      <c r="S17" s="8"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
-    </row>
-    <row r="18" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="7"/>
-      <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
+      <c r="S18" s="8"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
-    </row>
-    <row r="19" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" s="7"/>
-      <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="9"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
-    </row>
-    <row r="20" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="7"/>
-      <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H21" s="7"/>
-      <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
-      <c r="S21" s="9"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
-    </row>
-    <row r="22" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H22" s="7"/>
-      <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="8"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
-    </row>
-    <row r="23" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H23" s="7"/>
-      <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
+      <c r="S23" s="8"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
-    </row>
-    <row r="24" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H24" s="7"/>
-      <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="8"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
-    </row>
-    <row r="25" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H25" s="7"/>
-      <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="8"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-    </row>
-    <row r="26" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="7"/>
-      <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="9"/>
+      <c r="S26" s="8"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-    </row>
-    <row r="27" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="7"/>
-      <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="9"/>
+      <c r="S27" s="8"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
-    </row>
-    <row r="28" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28" s="7"/>
-      <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="9"/>
+      <c r="S28" s="8"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-    </row>
-    <row r="29" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="7"/>
-      <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="9"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
-    </row>
-    <row r="30" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30" s="7"/>
-      <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="8"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
-    </row>
-    <row r="31" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="7"/>
-      <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="9"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
-    </row>
-    <row r="32" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="7"/>
-      <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="9"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
-    </row>
-    <row r="33" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="7"/>
-      <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="9"/>
+      <c r="S33" s="8"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-    </row>
-    <row r="34" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="7"/>
-      <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="9"/>
+      <c r="S34" s="8"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
-    </row>
-    <row r="35" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="7"/>
-      <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
-      <c r="S35" s="9"/>
+      <c r="S35" s="8"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
-    </row>
-    <row r="36" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="7"/>
-      <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
-      <c r="S36" s="9"/>
+      <c r="S36" s="8"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
-    </row>
-    <row r="37" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="7"/>
-      <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
-      <c r="S37" s="9"/>
+      <c r="S37" s="8"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
-    </row>
-    <row r="38" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H38" s="7"/>
-      <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="9"/>
+      <c r="S38" s="8"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-    </row>
-    <row r="39" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="7"/>
-      <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
-      <c r="S39" s="9"/>
+      <c r="S39" s="8"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
-    </row>
-    <row r="40" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="7"/>
-      <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
-      <c r="S40" s="9"/>
+      <c r="S40" s="8"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
-    </row>
-    <row r="41" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="7"/>
-      <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
-      <c r="S41" s="9"/>
+      <c r="S41" s="8"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
-    </row>
-    <row r="42" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="7"/>
-      <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
-      <c r="S42" s="9"/>
+      <c r="S42" s="8"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
-    </row>
-    <row r="43" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="7"/>
-      <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
-      <c r="S43" s="9"/>
+      <c r="S43" s="8"/>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
-    </row>
-    <row r="44" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="7"/>
-      <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
-      <c r="S44" s="9"/>
+      <c r="S44" s="8"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
-    </row>
-    <row r="45" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H45" s="7"/>
-      <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
-      <c r="S45" s="9"/>
+      <c r="S45" s="8"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
-    </row>
-    <row r="46" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X45" s="9"/>
+    </row>
+    <row r="46" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H46" s="7"/>
-      <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
-      <c r="S46" s="9"/>
+      <c r="S46" s="8"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
-    </row>
-    <row r="47" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H47" s="7"/>
-      <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
-      <c r="S47" s="9"/>
+      <c r="S47" s="8"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-    </row>
-    <row r="48" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" s="7"/>
-      <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
-      <c r="S48" s="9"/>
+      <c r="S48" s="8"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
-    </row>
-    <row r="49" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H49" s="7"/>
-      <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
-      <c r="S49" s="9"/>
+      <c r="S49" s="8"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
-    </row>
-    <row r="50" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H50" s="7"/>
-      <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
-      <c r="S50" s="9"/>
+      <c r="S50" s="8"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
-    </row>
-    <row r="51" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X50" s="9"/>
+    </row>
+    <row r="51" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H51" s="7"/>
-      <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
-      <c r="S51" s="9"/>
+      <c r="S51" s="8"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
-    </row>
-    <row r="52" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X51" s="9"/>
+    </row>
+    <row r="52" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H52" s="7"/>
-      <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
-      <c r="S52" s="9"/>
+      <c r="S52" s="8"/>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
-    </row>
-    <row r="53" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X52" s="9"/>
+    </row>
+    <row r="53" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H53" s="7"/>
-      <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
-      <c r="S53" s="9"/>
+      <c r="S53" s="8"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
-    </row>
-    <row r="54" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X53" s="9"/>
+    </row>
+    <row r="54" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H54" s="7"/>
-      <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
-      <c r="S54" s="9"/>
+      <c r="S54" s="8"/>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
-    </row>
-    <row r="55" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X54" s="9"/>
+    </row>
+    <row r="55" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H55" s="7"/>
-      <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
-      <c r="S55" s="9"/>
+      <c r="S55" s="8"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
-    </row>
-    <row r="56" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X55" s="9"/>
+    </row>
+    <row r="56" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H56" s="7"/>
-      <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
-      <c r="S56" s="9"/>
+      <c r="S56" s="8"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
-    </row>
-    <row r="57" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X56" s="9"/>
+    </row>
+    <row r="57" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H57" s="7"/>
-      <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
-      <c r="S57" s="9"/>
+      <c r="S57" s="8"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
-    </row>
-    <row r="58" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X57" s="9"/>
+    </row>
+    <row r="58" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H58" s="7"/>
-      <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="9"/>
+      <c r="S58" s="8"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
-    </row>
-    <row r="59" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X58" s="9"/>
+    </row>
+    <row r="59" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H59" s="7"/>
-      <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
-      <c r="S59" s="9"/>
+      <c r="S59" s="8"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
-    </row>
-    <row r="60" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X59" s="9"/>
+    </row>
+    <row r="60" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H60" s="7"/>
-      <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
-      <c r="S60" s="9"/>
+      <c r="S60" s="8"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
-    </row>
-    <row r="61" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X60" s="9"/>
+    </row>
+    <row r="61" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H61" s="7"/>
-      <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
-      <c r="S61" s="9"/>
+      <c r="S61" s="8"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
-    </row>
-    <row r="62" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X61" s="9"/>
+    </row>
+    <row r="62" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H62" s="7"/>
-      <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
-      <c r="S62" s="9"/>
+      <c r="S62" s="8"/>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
-    </row>
-    <row r="63" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X62" s="9"/>
+    </row>
+    <row r="63" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H63" s="7"/>
-      <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
-      <c r="S63" s="9"/>
+      <c r="S63" s="8"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
-    </row>
-    <row r="64" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X63" s="9"/>
+    </row>
+    <row r="64" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H64" s="7"/>
-      <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
-      <c r="S64" s="9"/>
+      <c r="S64" s="8"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
-    </row>
-    <row r="65" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X64" s="9"/>
+    </row>
+    <row r="65" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H65" s="7"/>
-      <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="9"/>
+      <c r="S65" s="8"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
-    </row>
-    <row r="66" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X65" s="9"/>
+    </row>
+    <row r="66" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H66" s="7"/>
-      <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
-      <c r="S66" s="9"/>
+      <c r="S66" s="8"/>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
-    </row>
-    <row r="67" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X66" s="9"/>
+    </row>
+    <row r="67" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H67" s="7"/>
-      <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
-      <c r="S67" s="9"/>
+      <c r="S67" s="8"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
-    </row>
-    <row r="68" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X67" s="9"/>
+    </row>
+    <row r="68" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="7"/>
-      <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="9"/>
+      <c r="S68" s="8"/>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
-    </row>
-    <row r="69" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X68" s="9"/>
+    </row>
+    <row r="69" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H69" s="7"/>
-      <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="9"/>
+      <c r="S69" s="8"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
-    </row>
-    <row r="70" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X69" s="9"/>
+    </row>
+    <row r="70" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H70" s="7"/>
-      <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="9"/>
+      <c r="S70" s="8"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
-    </row>
-    <row r="71" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X70" s="9"/>
+    </row>
+    <row r="71" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H71" s="7"/>
-      <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="9"/>
+      <c r="S71" s="8"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
-    </row>
-    <row r="72" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X71" s="9"/>
+    </row>
+    <row r="72" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H72" s="7"/>
-      <c r="P72" s="8"/>
-    </row>
-    <row r="73" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q72" s="8"/>
+    </row>
+    <row r="73" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H73" s="7"/>
-      <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
-      <c r="S73" s="9"/>
+      <c r="S73" s="8"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
-    </row>
-    <row r="74" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X73" s="9"/>
+    </row>
+    <row r="74" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H74" s="7"/>
-      <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="9"/>
+      <c r="S74" s="8"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
-    </row>
-    <row r="75" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X74" s="9"/>
+    </row>
+    <row r="75" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H75" s="7"/>
-      <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
-      <c r="S75" s="9"/>
+      <c r="S75" s="8"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
-    </row>
-    <row r="76" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X75" s="9"/>
+    </row>
+    <row r="76" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H76" s="7"/>
-      <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
-      <c r="S76" s="9"/>
+      <c r="S76" s="8"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
-    </row>
-    <row r="77" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X76" s="9"/>
+    </row>
+    <row r="77" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H77" s="7"/>
-      <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
-      <c r="S77" s="9"/>
+      <c r="S77" s="8"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
-    </row>
-    <row r="78" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X77" s="9"/>
+    </row>
+    <row r="78" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H78" s="7"/>
-      <c r="P78" s="8"/>
-    </row>
-    <row r="79" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H79" s="7"/>
-      <c r="P79" s="8"/>
-    </row>
-    <row r="80" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q79" s="8"/>
+    </row>
+    <row r="80" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H80" s="7"/>
-      <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="9"/>
+      <c r="S80" s="8"/>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
-    </row>
-    <row r="81" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X80" s="9"/>
+    </row>
+    <row r="81" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H81" s="7"/>
-      <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
-      <c r="S81" s="9"/>
+      <c r="S81" s="8"/>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
-    </row>
-    <row r="82" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X81" s="9"/>
+    </row>
+    <row r="82" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H82" s="7"/>
-      <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
-      <c r="S82" s="9"/>
+      <c r="S82" s="8"/>
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
-    </row>
-    <row r="83" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X82" s="9"/>
+    </row>
+    <row r="83" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H83" s="7"/>
-      <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
-      <c r="S83" s="9"/>
+      <c r="S83" s="8"/>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
-    </row>
-    <row r="84" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X83" s="9"/>
+    </row>
+    <row r="84" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H84" s="7"/>
-      <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
-      <c r="S84" s="9"/>
+      <c r="S84" s="8"/>
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
-    </row>
-    <row r="85" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X84" s="9"/>
+    </row>
+    <row r="85" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H85" s="7"/>
-      <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
-      <c r="S85" s="9"/>
+      <c r="S85" s="8"/>
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
-    </row>
-    <row r="86" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X85" s="9"/>
+    </row>
+    <row r="86" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H86" s="7"/>
-      <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
-      <c r="S86" s="9"/>
+      <c r="S86" s="8"/>
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
-    </row>
-    <row r="87" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X86" s="9"/>
+    </row>
+    <row r="87" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H87" s="7"/>
-      <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
-      <c r="S87" s="9"/>
+      <c r="S87" s="8"/>
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
-    </row>
-    <row r="88" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X87" s="9"/>
+    </row>
+    <row r="88" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H88" s="7"/>
-      <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
-      <c r="S88" s="9"/>
+      <c r="S88" s="8"/>
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
       <c r="V88" s="9"/>
       <c r="W88" s="9"/>
-    </row>
-    <row r="89" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X88" s="9"/>
+    </row>
+    <row r="89" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H89" s="7"/>
-      <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
-      <c r="S89" s="9"/>
+      <c r="S89" s="8"/>
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
-    </row>
-    <row r="90" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X89" s="9"/>
+    </row>
+    <row r="90" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H90" s="7"/>
-      <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
-      <c r="S90" s="9"/>
+      <c r="S90" s="8"/>
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
       <c r="V90" s="9"/>
       <c r="W90" s="9"/>
-    </row>
-    <row r="91" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X90" s="9"/>
+    </row>
+    <row r="91" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H91" s="7"/>
-      <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
-      <c r="S91" s="9"/>
+      <c r="S91" s="8"/>
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
-    </row>
-    <row r="92" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X91" s="9"/>
+    </row>
+    <row r="92" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H92" s="7"/>
-      <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
-      <c r="S92" s="9"/>
+      <c r="S92" s="8"/>
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
       <c r="W92" s="9"/>
-    </row>
-    <row r="93" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X92" s="9"/>
+    </row>
+    <row r="93" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H93" s="7"/>
-      <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
-      <c r="S93" s="9"/>
+      <c r="S93" s="8"/>
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
       <c r="W93" s="9"/>
-    </row>
-    <row r="94" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X93" s="9"/>
+    </row>
+    <row r="94" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H94" s="7"/>
-      <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
-      <c r="S94" s="9"/>
+      <c r="S94" s="8"/>
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
       <c r="V94" s="9"/>
       <c r="W94" s="9"/>
-    </row>
-    <row r="95" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X94" s="9"/>
+    </row>
+    <row r="95" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H95" s="7"/>
-      <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
-      <c r="S95" s="9"/>
+      <c r="S95" s="8"/>
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
       <c r="V95" s="9"/>
       <c r="W95" s="9"/>
-    </row>
-    <row r="96" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X95" s="9"/>
+    </row>
+    <row r="96" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H96" s="7"/>
-      <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
-      <c r="S96" s="9"/>
+      <c r="S96" s="8"/>
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
       <c r="V96" s="9"/>
       <c r="W96" s="9"/>
-    </row>
-    <row r="97" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X96" s="9"/>
+    </row>
+    <row r="97" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H97" s="7"/>
-      <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
-      <c r="S97" s="9"/>
+      <c r="S97" s="8"/>
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
       <c r="V97" s="9"/>
       <c r="W97" s="9"/>
-    </row>
-    <row r="98" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X97" s="9"/>
+    </row>
+    <row r="98" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H98" s="7"/>
-      <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
-      <c r="S98" s="9"/>
+      <c r="S98" s="8"/>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
       <c r="V98" s="9"/>
       <c r="W98" s="9"/>
-    </row>
-    <row r="99" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X98" s="9"/>
+    </row>
+    <row r="99" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H99" s="7"/>
-      <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
-      <c r="S99" s="9"/>
+      <c r="S99" s="8"/>
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
       <c r="V99" s="9"/>
       <c r="W99" s="9"/>
-    </row>
-    <row r="100" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X99" s="9"/>
+    </row>
+    <row r="100" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H100" s="7"/>
-      <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
-      <c r="S100" s="9"/>
+      <c r="S100" s="8"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
-    </row>
-    <row r="101" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X100" s="9"/>
+    </row>
+    <row r="101" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H101" s="7"/>
-      <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
-      <c r="S101" s="9"/>
+      <c r="S101" s="8"/>
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
       <c r="V101" s="9"/>
       <c r="W101" s="9"/>
-    </row>
-    <row r="102" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X101" s="9"/>
+    </row>
+    <row r="102" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H102" s="7"/>
-      <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
-      <c r="S102" s="9"/>
+      <c r="S102" s="8"/>
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
-    </row>
-    <row r="103" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X102" s="9"/>
+    </row>
+    <row r="103" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H103" s="7"/>
-      <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
-      <c r="S103" s="9"/>
+      <c r="S103" s="8"/>
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
       <c r="V103" s="9"/>
       <c r="W103" s="9"/>
-    </row>
-    <row r="104" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X103" s="9"/>
+    </row>
+    <row r="104" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H104" s="7"/>
-      <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
-      <c r="S104" s="9"/>
+      <c r="S104" s="8"/>
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
       <c r="V104" s="9"/>
       <c r="W104" s="9"/>
-    </row>
-    <row r="105" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X104" s="9"/>
+    </row>
+    <row r="105" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H105" s="7"/>
-      <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
-      <c r="S105" s="9"/>
+      <c r="S105" s="8"/>
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
       <c r="V105" s="9"/>
       <c r="W105" s="9"/>
-    </row>
-    <row r="106" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X105" s="9"/>
+    </row>
+    <row r="106" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H106" s="7"/>
-      <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
-      <c r="S106" s="9"/>
+      <c r="S106" s="8"/>
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
       <c r="W106" s="9"/>
-    </row>
-    <row r="107" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X106" s="9"/>
+    </row>
+    <row r="107" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H107" s="7"/>
-      <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
-      <c r="S107" s="9"/>
+      <c r="S107" s="8"/>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
       <c r="V107" s="9"/>
       <c r="W107" s="9"/>
-    </row>
-    <row r="108" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X107" s="9"/>
+    </row>
+    <row r="108" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H108" s="7"/>
-      <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
-      <c r="S108" s="9"/>
+      <c r="S108" s="8"/>
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
-    </row>
-    <row r="109" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X108" s="9"/>
+    </row>
+    <row r="109" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H109" s="7"/>
-      <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
-      <c r="S109" s="9"/>
+      <c r="S109" s="8"/>
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
       <c r="V109" s="9"/>
       <c r="W109" s="9"/>
-    </row>
-    <row r="110" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X109" s="9"/>
+    </row>
+    <row r="110" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H110" s="7"/>
-      <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
-      <c r="S110" s="9"/>
+      <c r="S110" s="8"/>
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
       <c r="V110" s="9"/>
       <c r="W110" s="9"/>
-    </row>
-    <row r="111" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X110" s="9"/>
+    </row>
+    <row r="111" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H111" s="7"/>
-      <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
-      <c r="S111" s="9"/>
+      <c r="S111" s="8"/>
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
       <c r="V111" s="9"/>
       <c r="W111" s="9"/>
-    </row>
-    <row r="112" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X111" s="9"/>
+    </row>
+    <row r="112" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H112" s="7"/>
-      <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
-      <c r="S112" s="9"/>
+      <c r="S112" s="8"/>
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
       <c r="V112" s="9"/>
       <c r="W112" s="9"/>
-    </row>
-    <row r="113" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X112" s="9"/>
+    </row>
+    <row r="113" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H113" s="7"/>
-      <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
-      <c r="S113" s="9"/>
+      <c r="S113" s="8"/>
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
-    </row>
-    <row r="114" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X113" s="9"/>
+    </row>
+    <row r="114" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H114" s="7"/>
-      <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
-      <c r="S114" s="9"/>
+      <c r="S114" s="8"/>
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
       <c r="V114" s="9"/>
       <c r="W114" s="9"/>
-    </row>
-    <row r="115" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X114" s="9"/>
+    </row>
+    <row r="115" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H115" s="7"/>
-      <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
-      <c r="S115" s="9"/>
+      <c r="S115" s="8"/>
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
       <c r="V115" s="9"/>
       <c r="W115" s="9"/>
-    </row>
-    <row r="116" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X115" s="9"/>
+    </row>
+    <row r="116" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H116" s="7"/>
-      <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
-      <c r="S116" s="9"/>
+      <c r="S116" s="8"/>
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
       <c r="V116" s="9"/>
       <c r="W116" s="9"/>
-    </row>
-    <row r="117" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X116" s="9"/>
+    </row>
+    <row r="117" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H117" s="7"/>
-      <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
-      <c r="S117" s="9"/>
+      <c r="S117" s="8"/>
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
       <c r="V117" s="9"/>
       <c r="W117" s="9"/>
-    </row>
-    <row r="118" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X117" s="9"/>
+    </row>
+    <row r="118" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H118" s="7"/>
-      <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
-      <c r="S118" s="9"/>
+      <c r="S118" s="8"/>
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
       <c r="V118" s="9"/>
       <c r="W118" s="9"/>
-    </row>
-    <row r="119" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X118" s="9"/>
+    </row>
+    <row r="119" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H119" s="7"/>
-      <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
-      <c r="S119" s="9"/>
+      <c r="S119" s="8"/>
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
       <c r="V119" s="9"/>
       <c r="W119" s="9"/>
-    </row>
-    <row r="120" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X119" s="9"/>
+    </row>
+    <row r="120" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H120" s="7"/>
-      <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
-      <c r="S120" s="9"/>
+      <c r="S120" s="8"/>
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
       <c r="V120" s="9"/>
       <c r="W120" s="9"/>
-    </row>
-    <row r="121" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X120" s="9"/>
+    </row>
+    <row r="121" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H121" s="7"/>
-      <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
-      <c r="S121" s="9"/>
+      <c r="S121" s="8"/>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
       <c r="V121" s="9"/>
       <c r="W121" s="9"/>
-    </row>
-    <row r="122" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X121" s="9"/>
+    </row>
+    <row r="122" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H122" s="7"/>
-      <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
-      <c r="S122" s="9"/>
+      <c r="S122" s="8"/>
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
       <c r="V122" s="9"/>
       <c r="W122" s="9"/>
-    </row>
-    <row r="123" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X122" s="9"/>
+    </row>
+    <row r="123" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H123" s="7"/>
-      <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
-      <c r="S123" s="9"/>
+      <c r="S123" s="8"/>
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
       <c r="V123" s="9"/>
       <c r="W123" s="9"/>
-    </row>
-    <row r="124" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X123" s="9"/>
+    </row>
+    <row r="124" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H124" s="7"/>
-      <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
-      <c r="S124" s="9"/>
+      <c r="S124" s="8"/>
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
       <c r="W124" s="9"/>
-    </row>
-    <row r="125" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X124" s="9"/>
+    </row>
+    <row r="125" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H125" s="7"/>
-      <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
-      <c r="S125" s="9"/>
+      <c r="S125" s="8"/>
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
       <c r="V125" s="9"/>
       <c r="W125" s="9"/>
-    </row>
-    <row r="126" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X125" s="9"/>
+    </row>
+    <row r="126" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H126" s="7"/>
-      <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
-      <c r="S126" s="9"/>
+      <c r="S126" s="8"/>
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
       <c r="V126" s="9"/>
       <c r="W126" s="9"/>
-    </row>
-    <row r="127" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X126" s="9"/>
+    </row>
+    <row r="127" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H127" s="7"/>
-      <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
-      <c r="S127" s="9"/>
+      <c r="S127" s="8"/>
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
       <c r="V127" s="9"/>
       <c r="W127" s="9"/>
-    </row>
-    <row r="128" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X127" s="9"/>
+    </row>
+    <row r="128" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H128" s="7"/>
-      <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
-      <c r="S128" s="9"/>
+      <c r="S128" s="8"/>
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
       <c r="V128" s="9"/>
       <c r="W128" s="9"/>
-    </row>
-    <row r="129" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X128" s="9"/>
+    </row>
+    <row r="129" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H129" s="7"/>
-      <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
-      <c r="T129" s="9"/>
+      <c r="S129" s="8"/>
       <c r="U129" s="9"/>
       <c r="V129" s="9"/>
       <c r="W129" s="9"/>
-    </row>
-    <row r="130" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X129" s="9"/>
+    </row>
+    <row r="130" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H130" s="7"/>
-      <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
-      <c r="T130" s="9"/>
+      <c r="S130" s="8"/>
       <c r="U130" s="9"/>
       <c r="V130" s="9"/>
       <c r="W130" s="9"/>
-    </row>
-    <row r="131" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X130" s="9"/>
+    </row>
+    <row r="131" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H131" s="7"/>
-      <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
-      <c r="T131" s="9"/>
+      <c r="S131" s="8"/>
       <c r="U131" s="9"/>
       <c r="V131" s="9"/>
       <c r="W131" s="9"/>
-    </row>
-    <row r="132" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X131" s="9"/>
+    </row>
+    <row r="132" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H132" s="7"/>
-      <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
-      <c r="T132" s="9"/>
+      <c r="S132" s="8"/>
       <c r="U132" s="9"/>
       <c r="V132" s="9"/>
       <c r="W132" s="9"/>
-    </row>
-    <row r="133" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X132" s="9"/>
+    </row>
+    <row r="133" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H133" s="7"/>
-      <c r="P133" s="8"/>
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
-      <c r="S133" s="9"/>
+      <c r="S133" s="8"/>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
       <c r="V133" s="9"/>
       <c r="W133" s="9"/>
-    </row>
-    <row r="134" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X133" s="9"/>
+    </row>
+    <row r="134" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H134" s="7"/>
-      <c r="P134" s="8"/>
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
-      <c r="S134" s="9"/>
+      <c r="S134" s="8"/>
       <c r="T134" s="9"/>
       <c r="U134" s="9"/>
       <c r="V134" s="9"/>
       <c r="W134" s="9"/>
-    </row>
-    <row r="135" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X134" s="9"/>
+    </row>
+    <row r="135" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H135" s="7"/>
-      <c r="P135" s="8"/>
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
-      <c r="S135" s="9"/>
+      <c r="S135" s="8"/>
       <c r="T135" s="9"/>
       <c r="U135" s="9"/>
       <c r="V135" s="9"/>
       <c r="W135" s="9"/>
-    </row>
-    <row r="136" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X135" s="9"/>
+    </row>
+    <row r="136" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H136" s="7"/>
-      <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
-      <c r="S136" s="9"/>
+      <c r="S136" s="8"/>
       <c r="T136" s="9"/>
       <c r="U136" s="9"/>
       <c r="V136" s="9"/>
       <c r="W136" s="9"/>
-    </row>
-    <row r="137" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X136" s="9"/>
+    </row>
+    <row r="137" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H137" s="7"/>
-      <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
-      <c r="S137" s="9"/>
+      <c r="S137" s="8"/>
       <c r="T137" s="9"/>
       <c r="U137" s="9"/>
       <c r="V137" s="9"/>
       <c r="W137" s="9"/>
-    </row>
-    <row r="138" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X137" s="9"/>
+    </row>
+    <row r="138" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H138" s="7"/>
-      <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
-      <c r="S138" s="9"/>
+      <c r="S138" s="8"/>
       <c r="T138" s="9"/>
       <c r="U138" s="9"/>
       <c r="V138" s="9"/>
       <c r="W138" s="9"/>
-    </row>
-    <row r="139" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X138" s="9"/>
+    </row>
+    <row r="139" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H139" s="7"/>
-      <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
-      <c r="S139" s="9"/>
+      <c r="S139" s="8"/>
       <c r="T139" s="9"/>
       <c r="U139" s="9"/>
       <c r="V139" s="9"/>
       <c r="W139" s="9"/>
-    </row>
-    <row r="140" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X139" s="9"/>
+    </row>
+    <row r="140" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H140" s="7"/>
-      <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
-      <c r="S140" s="9"/>
+      <c r="S140" s="8"/>
       <c r="T140" s="9"/>
       <c r="U140" s="9"/>
       <c r="V140" s="9"/>
       <c r="W140" s="9"/>
-    </row>
-    <row r="141" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X140" s="9"/>
+    </row>
+    <row r="141" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H141" s="7"/>
-      <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
-      <c r="S141" s="9"/>
+      <c r="S141" s="8"/>
       <c r="T141" s="9"/>
       <c r="U141" s="9"/>
       <c r="V141" s="9"/>
       <c r="W141" s="9"/>
-    </row>
-    <row r="142" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X141" s="9"/>
+    </row>
+    <row r="142" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H142" s="7"/>
-      <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
-      <c r="S142" s="9"/>
+      <c r="S142" s="8"/>
       <c r="T142" s="9"/>
       <c r="U142" s="9"/>
       <c r="V142" s="9"/>
       <c r="W142" s="9"/>
-    </row>
-    <row r="143" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X142" s="9"/>
+    </row>
+    <row r="143" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H143" s="7"/>
-      <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
       <c r="R143" s="8"/>
-      <c r="S143" s="9"/>
+      <c r="S143" s="8"/>
       <c r="T143" s="9"/>
       <c r="U143" s="9"/>
       <c r="V143" s="9"/>
       <c r="W143" s="9"/>
-    </row>
-    <row r="144" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X143" s="9"/>
+    </row>
+    <row r="144" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H144" s="7"/>
-      <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
-      <c r="S144" s="9"/>
+      <c r="S144" s="8"/>
       <c r="T144" s="9"/>
       <c r="U144" s="9"/>
       <c r="V144" s="9"/>
       <c r="W144" s="9"/>
-    </row>
-    <row r="145" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X144" s="9"/>
+    </row>
+    <row r="145" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H145" s="7"/>
-      <c r="P145" s="8"/>
       <c r="Q145" s="8"/>
       <c r="R145" s="8"/>
-      <c r="S145" s="9"/>
+      <c r="S145" s="8"/>
       <c r="T145" s="9"/>
       <c r="U145" s="9"/>
       <c r="V145" s="9"/>
       <c r="W145" s="9"/>
-    </row>
-    <row r="146" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X145" s="9"/>
+    </row>
+    <row r="146" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H146" s="7"/>
-      <c r="P146" s="8"/>
       <c r="Q146" s="8"/>
       <c r="R146" s="8"/>
-      <c r="S146" s="9"/>
+      <c r="S146" s="8"/>
       <c r="T146" s="9"/>
       <c r="U146" s="9"/>
       <c r="V146" s="9"/>
       <c r="W146" s="9"/>
-    </row>
-    <row r="147" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X146" s="9"/>
+    </row>
+    <row r="147" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H147" s="7"/>
-      <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="8"/>
-      <c r="S147" s="9"/>
+      <c r="S147" s="8"/>
       <c r="T147" s="9"/>
       <c r="U147" s="9"/>
       <c r="V147" s="9"/>
       <c r="W147" s="9"/>
-    </row>
-    <row r="148" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X147" s="9"/>
+    </row>
+    <row r="148" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H148" s="7"/>
-      <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
-      <c r="S148" s="9"/>
+      <c r="S148" s="8"/>
       <c r="T148" s="9"/>
       <c r="U148" s="9"/>
       <c r="V148" s="9"/>
       <c r="W148" s="9"/>
-    </row>
-    <row r="149" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X148" s="9"/>
+    </row>
+    <row r="149" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H149" s="7"/>
-      <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
-      <c r="S149" s="9"/>
+      <c r="S149" s="8"/>
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
       <c r="V149" s="9"/>
       <c r="W149" s="9"/>
-    </row>
-    <row r="150" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X149" s="9"/>
+    </row>
+    <row r="150" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H150" s="7"/>
-      <c r="P150" s="8"/>
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
-      <c r="S150" s="9"/>
+      <c r="S150" s="8"/>
       <c r="T150" s="9"/>
       <c r="U150" s="9"/>
       <c r="V150" s="9"/>
       <c r="W150" s="9"/>
-    </row>
-    <row r="151" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X150" s="9"/>
+    </row>
+    <row r="151" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H151" s="7"/>
-      <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
       <c r="R151" s="8"/>
-      <c r="S151" s="9"/>
+      <c r="S151" s="8"/>
       <c r="T151" s="9"/>
       <c r="U151" s="9"/>
       <c r="V151" s="9"/>
       <c r="W151" s="9"/>
-    </row>
-    <row r="152" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X151" s="9"/>
+    </row>
+    <row r="152" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H152" s="7"/>
-      <c r="P152" s="8"/>
       <c r="Q152" s="8"/>
       <c r="R152" s="8"/>
-      <c r="S152" s="9"/>
+      <c r="S152" s="8"/>
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
       <c r="V152" s="9"/>
       <c r="W152" s="9"/>
-    </row>
-    <row r="153" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X152" s="9"/>
+    </row>
+    <row r="153" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H153" s="7"/>
-      <c r="P153" s="8"/>
       <c r="Q153" s="8"/>
       <c r="R153" s="8"/>
-      <c r="S153" s="9"/>
+      <c r="S153" s="8"/>
       <c r="T153" s="9"/>
       <c r="U153" s="9"/>
       <c r="V153" s="9"/>
       <c r="W153" s="9"/>
-    </row>
-    <row r="154" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X153" s="9"/>
+    </row>
+    <row r="154" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H154" s="7"/>
-      <c r="P154" s="8"/>
       <c r="Q154" s="8"/>
       <c r="R154" s="8"/>
-      <c r="S154" s="9"/>
+      <c r="S154" s="8"/>
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
       <c r="V154" s="9"/>
       <c r="W154" s="9"/>
-    </row>
-    <row r="155" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X154" s="9"/>
+    </row>
+    <row r="155" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H155" s="7"/>
-      <c r="P155" s="8"/>
       <c r="Q155" s="8"/>
       <c r="R155" s="8"/>
-      <c r="S155" s="9"/>
+      <c r="S155" s="8"/>
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
       <c r="V155" s="9"/>
       <c r="W155" s="9"/>
-    </row>
-    <row r="156" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X155" s="9"/>
+    </row>
+    <row r="156" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H156" s="7"/>
-      <c r="P156" s="8"/>
       <c r="Q156" s="8"/>
       <c r="R156" s="8"/>
-      <c r="S156" s="9"/>
+      <c r="S156" s="8"/>
       <c r="T156" s="9"/>
       <c r="U156" s="9"/>
       <c r="V156" s="9"/>
       <c r="W156" s="9"/>
-    </row>
-    <row r="157" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X156" s="9"/>
+    </row>
+    <row r="157" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H157" s="7"/>
-      <c r="P157" s="8"/>
       <c r="Q157" s="8"/>
       <c r="R157" s="8"/>
-      <c r="S157" s="9"/>
+      <c r="S157" s="8"/>
       <c r="T157" s="9"/>
       <c r="U157" s="9"/>
       <c r="V157" s="9"/>
       <c r="W157" s="9"/>
-    </row>
-    <row r="158" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X157" s="9"/>
+    </row>
+    <row r="158" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H158" s="7"/>
-      <c r="P158" s="8"/>
       <c r="Q158" s="8"/>
       <c r="R158" s="8"/>
-      <c r="S158" s="9"/>
+      <c r="S158" s="8"/>
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
       <c r="V158" s="9"/>
       <c r="W158" s="9"/>
-    </row>
-    <row r="159" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X158" s="9"/>
+    </row>
+    <row r="159" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H159" s="7"/>
-      <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
       <c r="R159" s="8"/>
-      <c r="S159" s="9"/>
+      <c r="S159" s="8"/>
       <c r="T159" s="9"/>
       <c r="U159" s="9"/>
       <c r="V159" s="9"/>
       <c r="W159" s="9"/>
-    </row>
-    <row r="160" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X159" s="9"/>
+    </row>
+    <row r="160" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H160" s="7"/>
-      <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
       <c r="R160" s="8"/>
-      <c r="S160" s="9"/>
+      <c r="S160" s="8"/>
       <c r="T160" s="9"/>
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
       <c r="W160" s="9"/>
-    </row>
-    <row r="161" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X160" s="9"/>
+    </row>
+    <row r="161" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H161" s="7"/>
-      <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
       <c r="R161" s="8"/>
-      <c r="S161" s="9"/>
+      <c r="S161" s="8"/>
       <c r="T161" s="9"/>
       <c r="U161" s="9"/>
       <c r="V161" s="9"/>
       <c r="W161" s="9"/>
-    </row>
-    <row r="162" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X161" s="9"/>
+    </row>
+    <row r="162" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H162" s="7"/>
-      <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
       <c r="R162" s="8"/>
-      <c r="S162" s="9"/>
+      <c r="S162" s="8"/>
       <c r="T162" s="9"/>
       <c r="U162" s="9"/>
       <c r="V162" s="9"/>
       <c r="W162" s="9"/>
-    </row>
-    <row r="163" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X162" s="9"/>
+    </row>
+    <row r="163" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H163" s="7"/>
-      <c r="P163" s="8"/>
       <c r="Q163" s="8"/>
       <c r="R163" s="8"/>
-      <c r="S163" s="9"/>
+      <c r="S163" s="8"/>
       <c r="T163" s="9"/>
       <c r="U163" s="9"/>
       <c r="V163" s="9"/>
       <c r="W163" s="9"/>
-    </row>
-    <row r="164" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X163" s="9"/>
+    </row>
+    <row r="164" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H164" s="7"/>
-      <c r="P164" s="8"/>
       <c r="Q164" s="8"/>
       <c r="R164" s="8"/>
-      <c r="S164" s="9"/>
+      <c r="S164" s="8"/>
       <c r="T164" s="9"/>
       <c r="U164" s="9"/>
       <c r="V164" s="9"/>
       <c r="W164" s="9"/>
-    </row>
-    <row r="165" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X164" s="9"/>
+    </row>
+    <row r="165" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H165" s="7"/>
-      <c r="P165" s="8"/>
       <c r="Q165" s="8"/>
       <c r="R165" s="8"/>
-      <c r="S165" s="9"/>
+      <c r="S165" s="8"/>
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
       <c r="V165" s="9"/>
       <c r="W165" s="9"/>
-    </row>
-    <row r="166" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X165" s="9"/>
+    </row>
+    <row r="166" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H166" s="7"/>
-      <c r="P166" s="8"/>
       <c r="Q166" s="8"/>
       <c r="R166" s="8"/>
-      <c r="S166" s="9"/>
+      <c r="S166" s="8"/>
       <c r="T166" s="9"/>
       <c r="U166" s="9"/>
       <c r="V166" s="9"/>
       <c r="W166" s="9"/>
-    </row>
-    <row r="167" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X166" s="9"/>
+    </row>
+    <row r="167" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H167" s="7"/>
-      <c r="P167" s="8"/>
       <c r="Q167" s="8"/>
       <c r="R167" s="8"/>
-      <c r="S167" s="9"/>
+      <c r="S167" s="8"/>
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
       <c r="V167" s="9"/>
       <c r="W167" s="9"/>
-    </row>
-    <row r="168" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X167" s="9"/>
+    </row>
+    <row r="168" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H168" s="7"/>
-      <c r="P168" s="8"/>
       <c r="Q168" s="8"/>
       <c r="R168" s="8"/>
-      <c r="S168" s="9"/>
+      <c r="S168" s="8"/>
       <c r="T168" s="9"/>
       <c r="U168" s="9"/>
       <c r="V168" s="9"/>
       <c r="W168" s="9"/>
-    </row>
-    <row r="169" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X168" s="9"/>
+    </row>
+    <row r="169" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H169" s="7"/>
-      <c r="P169" s="8"/>
       <c r="Q169" s="8"/>
       <c r="R169" s="8"/>
-      <c r="S169" s="9"/>
+      <c r="S169" s="8"/>
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
       <c r="V169" s="9"/>
       <c r="W169" s="9"/>
-    </row>
-    <row r="170" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X169" s="9"/>
+    </row>
+    <row r="170" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H170" s="7"/>
-      <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
       <c r="R170" s="8"/>
-      <c r="S170" s="9"/>
+      <c r="S170" s="8"/>
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
       <c r="V170" s="9"/>
       <c r="W170" s="9"/>
-    </row>
-    <row r="171" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X170" s="9"/>
+    </row>
+    <row r="171" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H171" s="7"/>
-      <c r="P171" s="8"/>
       <c r="Q171" s="8"/>
       <c r="R171" s="8"/>
-      <c r="S171" s="9"/>
+      <c r="S171" s="8"/>
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
       <c r="V171" s="9"/>
       <c r="W171" s="9"/>
-    </row>
-    <row r="172" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X171" s="9"/>
+    </row>
+    <row r="172" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H172" s="7"/>
-      <c r="P172" s="8"/>
       <c r="Q172" s="8"/>
       <c r="R172" s="8"/>
-      <c r="S172" s="9"/>
+      <c r="S172" s="8"/>
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
       <c r="V172" s="9"/>
       <c r="W172" s="9"/>
-    </row>
-    <row r="173" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X172" s="9"/>
+    </row>
+    <row r="173" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H173" s="7"/>
-      <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
-      <c r="S173" s="9"/>
+      <c r="S173" s="8"/>
       <c r="T173" s="9"/>
       <c r="U173" s="9"/>
       <c r="V173" s="9"/>
       <c r="W173" s="9"/>
-    </row>
-    <row r="174" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X173" s="9"/>
+    </row>
+    <row r="174" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H174" s="7"/>
-      <c r="P174" s="8"/>
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
-      <c r="S174" s="9"/>
+      <c r="S174" s="8"/>
       <c r="T174" s="9"/>
       <c r="U174" s="9"/>
       <c r="V174" s="9"/>
       <c r="W174" s="9"/>
-    </row>
-    <row r="175" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X174" s="9"/>
+    </row>
+    <row r="175" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H175" s="7"/>
-      <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
-      <c r="S175" s="9"/>
+      <c r="S175" s="8"/>
       <c r="T175" s="9"/>
       <c r="U175" s="9"/>
       <c r="V175" s="9"/>
       <c r="W175" s="9"/>
-    </row>
-    <row r="176" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X175" s="9"/>
+    </row>
+    <row r="176" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H176" s="7"/>
-      <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
-      <c r="S176" s="9"/>
+      <c r="S176" s="8"/>
       <c r="T176" s="9"/>
       <c r="U176" s="9"/>
       <c r="V176" s="9"/>
       <c r="W176" s="9"/>
-    </row>
-    <row r="177" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X176" s="9"/>
+    </row>
+    <row r="177" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H177" s="7"/>
-      <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
-      <c r="S177" s="9"/>
+      <c r="S177" s="8"/>
       <c r="T177" s="9"/>
       <c r="U177" s="9"/>
       <c r="V177" s="9"/>
       <c r="W177" s="9"/>
-    </row>
-    <row r="178" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X177" s="9"/>
+    </row>
+    <row r="178" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H178" s="7"/>
-      <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
-      <c r="S178" s="9"/>
+      <c r="S178" s="8"/>
       <c r="T178" s="9"/>
       <c r="U178" s="9"/>
       <c r="V178" s="9"/>
       <c r="W178" s="9"/>
-    </row>
-    <row r="179" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X178" s="9"/>
+    </row>
+    <row r="179" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H179" s="7"/>
-      <c r="P179" s="8"/>
       <c r="Q179" s="8"/>
       <c r="R179" s="8"/>
-      <c r="S179" s="9"/>
+      <c r="S179" s="8"/>
       <c r="T179" s="9"/>
       <c r="U179" s="9"/>
       <c r="V179" s="9"/>
       <c r="W179" s="9"/>
-    </row>
-    <row r="180" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X179" s="9"/>
+    </row>
+    <row r="180" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H180" s="7"/>
-      <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
-      <c r="S180" s="9"/>
+      <c r="S180" s="8"/>
       <c r="T180" s="9"/>
       <c r="U180" s="9"/>
       <c r="V180" s="9"/>
       <c r="W180" s="9"/>
-    </row>
-    <row r="181" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X180" s="9"/>
+    </row>
+    <row r="181" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H181" s="7"/>
-      <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
-      <c r="S181" s="9"/>
+      <c r="S181" s="8"/>
       <c r="T181" s="9"/>
       <c r="U181" s="9"/>
       <c r="V181" s="9"/>
       <c r="W181" s="9"/>
-    </row>
-    <row r="182" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X181" s="9"/>
+    </row>
+    <row r="182" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H182" s="7"/>
-      <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
-      <c r="S182" s="9"/>
+      <c r="S182" s="8"/>
       <c r="T182" s="9"/>
       <c r="U182" s="9"/>
       <c r="V182" s="9"/>
       <c r="W182" s="9"/>
-    </row>
-    <row r="183" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X182" s="9"/>
+    </row>
+    <row r="183" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H183" s="7"/>
-      <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
-      <c r="S183" s="9"/>
+      <c r="S183" s="8"/>
       <c r="T183" s="9"/>
       <c r="U183" s="9"/>
       <c r="V183" s="9"/>
       <c r="W183" s="9"/>
-    </row>
-    <row r="184" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X183" s="9"/>
+    </row>
+    <row r="184" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H184" s="7"/>
-      <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="8"/>
-      <c r="S184" s="9"/>
+      <c r="S184" s="8"/>
       <c r="T184" s="9"/>
       <c r="U184" s="9"/>
       <c r="V184" s="9"/>
       <c r="W184" s="9"/>
-    </row>
-    <row r="185" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X184" s="9"/>
+    </row>
+    <row r="185" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H185" s="7"/>
-      <c r="P185" s="8"/>
       <c r="Q185" s="8"/>
       <c r="R185" s="8"/>
-      <c r="S185" s="9"/>
+      <c r="S185" s="8"/>
       <c r="T185" s="9"/>
       <c r="U185" s="9"/>
       <c r="V185" s="9"/>
       <c r="W185" s="9"/>
-    </row>
-    <row r="186" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X185" s="9"/>
+    </row>
+    <row r="186" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H186" s="7"/>
-      <c r="P186" s="8"/>
       <c r="Q186" s="8"/>
       <c r="R186" s="8"/>
-      <c r="S186" s="9"/>
+      <c r="S186" s="8"/>
       <c r="T186" s="9"/>
       <c r="U186" s="9"/>
       <c r="V186" s="9"/>
       <c r="W186" s="9"/>
-    </row>
-    <row r="187" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X186" s="9"/>
+    </row>
+    <row r="187" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H187" s="7"/>
-      <c r="P187" s="8"/>
       <c r="Q187" s="8"/>
       <c r="R187" s="8"/>
-      <c r="S187" s="9"/>
+      <c r="S187" s="8"/>
       <c r="T187" s="9"/>
       <c r="U187" s="9"/>
       <c r="V187" s="9"/>
       <c r="W187" s="9"/>
-    </row>
-    <row r="188" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X187" s="9"/>
+    </row>
+    <row r="188" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H188" s="7"/>
-      <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
       <c r="R188" s="8"/>
-      <c r="S188" s="9"/>
+      <c r="S188" s="8"/>
       <c r="T188" s="9"/>
       <c r="U188" s="9"/>
       <c r="V188" s="9"/>
       <c r="W188" s="9"/>
-    </row>
-    <row r="189" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X188" s="9"/>
+    </row>
+    <row r="189" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H189" s="7"/>
-      <c r="P189" s="8"/>
       <c r="Q189" s="8"/>
       <c r="R189" s="8"/>
-      <c r="S189" s="9"/>
+      <c r="S189" s="8"/>
       <c r="T189" s="9"/>
       <c r="U189" s="9"/>
       <c r="V189" s="9"/>
       <c r="W189" s="9"/>
-    </row>
-    <row r="190" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X189" s="9"/>
+    </row>
+    <row r="190" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H190" s="7"/>
-      <c r="P190" s="8"/>
       <c r="Q190" s="8"/>
       <c r="R190" s="8"/>
-      <c r="S190" s="9"/>
+      <c r="S190" s="8"/>
       <c r="T190" s="9"/>
       <c r="U190" s="9"/>
       <c r="V190" s="9"/>
       <c r="W190" s="9"/>
-    </row>
-    <row r="191" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X190" s="9"/>
+    </row>
+    <row r="191" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H191" s="7"/>
-      <c r="P191" s="8"/>
       <c r="Q191" s="8"/>
       <c r="R191" s="8"/>
-      <c r="S191" s="9"/>
+      <c r="S191" s="8"/>
       <c r="T191" s="9"/>
       <c r="U191" s="9"/>
       <c r="V191" s="9"/>
       <c r="W191" s="9"/>
-    </row>
-    <row r="192" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X191" s="9"/>
+    </row>
+    <row r="192" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H192" s="7"/>
-      <c r="P192" s="8"/>
       <c r="Q192" s="8"/>
       <c r="R192" s="8"/>
-      <c r="S192" s="9"/>
+      <c r="S192" s="8"/>
       <c r="T192" s="9"/>
       <c r="U192" s="9"/>
       <c r="V192" s="9"/>
       <c r="W192" s="9"/>
-    </row>
-    <row r="193" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X192" s="9"/>
+    </row>
+    <row r="193" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H193" s="7"/>
-      <c r="P193" s="8"/>
       <c r="Q193" s="8"/>
       <c r="R193" s="8"/>
-      <c r="S193" s="9"/>
+      <c r="S193" s="8"/>
       <c r="T193" s="9"/>
       <c r="U193" s="9"/>
       <c r="V193" s="9"/>
       <c r="W193" s="9"/>
-    </row>
-    <row r="194" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X193" s="9"/>
+    </row>
+    <row r="194" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H194" s="7"/>
-      <c r="P194" s="8"/>
       <c r="Q194" s="8"/>
       <c r="R194" s="8"/>
-      <c r="S194" s="9"/>
+      <c r="S194" s="8"/>
       <c r="T194" s="9"/>
       <c r="U194" s="9"/>
       <c r="V194" s="9"/>
       <c r="W194" s="9"/>
-    </row>
-    <row r="195" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X194" s="9"/>
+    </row>
+    <row r="195" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H195" s="7"/>
-      <c r="P195" s="8"/>
       <c r="Q195" s="8"/>
       <c r="R195" s="8"/>
-      <c r="S195" s="9"/>
+      <c r="S195" s="8"/>
       <c r="T195" s="9"/>
       <c r="U195" s="9"/>
       <c r="V195" s="9"/>
       <c r="W195" s="9"/>
-    </row>
-    <row r="196" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X195" s="9"/>
+    </row>
+    <row r="196" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H196" s="7"/>
-      <c r="P196" s="8"/>
       <c r="Q196" s="8"/>
       <c r="R196" s="8"/>
-      <c r="S196" s="9"/>
+      <c r="S196" s="8"/>
       <c r="T196" s="9"/>
       <c r="U196" s="9"/>
       <c r="V196" s="9"/>
       <c r="W196" s="9"/>
-    </row>
-    <row r="197" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X196" s="9"/>
+    </row>
+    <row r="197" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H197" s="7"/>
-      <c r="P197" s="8"/>
       <c r="Q197" s="8"/>
       <c r="R197" s="8"/>
-      <c r="S197" s="9"/>
+      <c r="S197" s="8"/>
       <c r="T197" s="9"/>
       <c r="U197" s="9"/>
       <c r="V197" s="9"/>
       <c r="W197" s="9"/>
-    </row>
-    <row r="198" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X197" s="9"/>
+    </row>
+    <row r="198" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H198" s="7"/>
-      <c r="P198" s="8"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="8"/>
-      <c r="S198" s="9"/>
+      <c r="S198" s="8"/>
       <c r="T198" s="9"/>
       <c r="U198" s="9"/>
       <c r="V198" s="9"/>
       <c r="W198" s="9"/>
-    </row>
-    <row r="199" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X198" s="9"/>
+    </row>
+    <row r="199" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H199" s="7"/>
-      <c r="P199" s="8"/>
       <c r="Q199" s="8"/>
       <c r="R199" s="8"/>
-      <c r="S199" s="9"/>
+      <c r="S199" s="8"/>
       <c r="T199" s="9"/>
       <c r="U199" s="9"/>
       <c r="V199" s="9"/>
       <c r="W199" s="9"/>
-    </row>
-    <row r="200" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X199" s="9"/>
+    </row>
+    <row r="200" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H200" s="7"/>
-      <c r="P200" s="8"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="8"/>
-      <c r="S200" s="9"/>
+      <c r="S200" s="8"/>
       <c r="T200" s="9"/>
       <c r="U200" s="9"/>
       <c r="V200" s="9"/>
       <c r="W200" s="9"/>
-    </row>
-    <row r="201" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X200" s="9"/>
+    </row>
+    <row r="201" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H201" s="7"/>
-      <c r="P201" s="8"/>
       <c r="Q201" s="8"/>
       <c r="R201" s="8"/>
-      <c r="S201" s="9"/>
+      <c r="S201" s="8"/>
       <c r="T201" s="9"/>
       <c r="U201" s="9"/>
       <c r="V201" s="9"/>
       <c r="W201" s="9"/>
-    </row>
-    <row r="202" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X201" s="9"/>
+    </row>
+    <row r="202" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H202" s="7"/>
-      <c r="P202" s="8"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="8"/>
-      <c r="S202" s="9"/>
+      <c r="S202" s="8"/>
       <c r="T202" s="9"/>
       <c r="U202" s="9"/>
       <c r="V202" s="9"/>
       <c r="W202" s="9"/>
-    </row>
-    <row r="203" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X202" s="9"/>
+    </row>
+    <row r="203" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H203" s="7"/>
-      <c r="P203" s="8"/>
       <c r="Q203" s="8"/>
       <c r="R203" s="8"/>
-      <c r="S203" s="9"/>
+      <c r="S203" s="8"/>
       <c r="T203" s="9"/>
       <c r="U203" s="9"/>
       <c r="V203" s="9"/>
       <c r="W203" s="9"/>
-    </row>
-    <row r="204" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X203" s="9"/>
+    </row>
+    <row r="204" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H204" s="7"/>
-      <c r="P204" s="8"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="8"/>
-      <c r="S204" s="9"/>
+      <c r="S204" s="8"/>
       <c r="T204" s="9"/>
       <c r="U204" s="9"/>
       <c r="V204" s="9"/>
       <c r="W204" s="9"/>
-    </row>
-    <row r="205" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X204" s="9"/>
+    </row>
+    <row r="205" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H205" s="7"/>
-      <c r="P205" s="8"/>
       <c r="Q205" s="8"/>
       <c r="R205" s="8"/>
-      <c r="S205" s="9"/>
+      <c r="S205" s="8"/>
       <c r="T205" s="9"/>
       <c r="U205" s="9"/>
       <c r="V205" s="9"/>
       <c r="W205" s="9"/>
-    </row>
-    <row r="206" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X205" s="9"/>
+    </row>
+    <row r="206" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H206" s="7"/>
-      <c r="P206" s="8"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="8"/>
-      <c r="S206" s="9"/>
+      <c r="S206" s="8"/>
       <c r="T206" s="9"/>
       <c r="U206" s="9"/>
       <c r="V206" s="9"/>
       <c r="W206" s="9"/>
-    </row>
-    <row r="207" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X206" s="9"/>
+    </row>
+    <row r="207" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H207" s="7"/>
-      <c r="P207" s="8"/>
       <c r="Q207" s="8"/>
       <c r="R207" s="8"/>
-      <c r="S207" s="9"/>
+      <c r="S207" s="8"/>
       <c r="T207" s="9"/>
       <c r="U207" s="9"/>
       <c r="V207" s="9"/>
       <c r="W207" s="9"/>
-    </row>
-    <row r="208" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X207" s="9"/>
+    </row>
+    <row r="208" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H208" s="7"/>
-      <c r="P208" s="8"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="8"/>
-      <c r="S208" s="9"/>
+      <c r="S208" s="8"/>
       <c r="T208" s="9"/>
       <c r="U208" s="9"/>
       <c r="V208" s="9"/>
       <c r="W208" s="9"/>
-    </row>
-    <row r="209" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X208" s="9"/>
+    </row>
+    <row r="209" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H209" s="7"/>
-      <c r="P209" s="8"/>
       <c r="Q209" s="8"/>
       <c r="R209" s="8"/>
-      <c r="S209" s="9"/>
+      <c r="S209" s="8"/>
       <c r="T209" s="9"/>
       <c r="U209" s="9"/>
       <c r="V209" s="9"/>
       <c r="W209" s="9"/>
-    </row>
-    <row r="210" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X209" s="9"/>
+    </row>
+    <row r="210" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H210" s="7"/>
-      <c r="P210" s="8"/>
       <c r="Q210" s="8"/>
       <c r="R210" s="8"/>
-      <c r="S210" s="9"/>
+      <c r="S210" s="8"/>
       <c r="T210" s="9"/>
       <c r="U210" s="9"/>
       <c r="V210" s="9"/>
       <c r="W210" s="9"/>
-    </row>
-    <row r="211" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X210" s="9"/>
+    </row>
+    <row r="211" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H211" s="7"/>
-      <c r="P211" s="8"/>
       <c r="Q211" s="8"/>
       <c r="R211" s="8"/>
-      <c r="S211" s="9"/>
+      <c r="S211" s="8"/>
       <c r="T211" s="9"/>
       <c r="U211" s="9"/>
       <c r="V211" s="9"/>
       <c r="W211" s="9"/>
-    </row>
-    <row r="212" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X211" s="9"/>
+    </row>
+    <row r="212" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H212" s="7"/>
-      <c r="P212" s="8"/>
       <c r="Q212" s="8"/>
       <c r="R212" s="8"/>
-      <c r="S212" s="9"/>
+      <c r="S212" s="8"/>
       <c r="T212" s="9"/>
       <c r="U212" s="9"/>
       <c r="V212" s="9"/>
       <c r="W212" s="9"/>
-    </row>
-    <row r="213" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X212" s="9"/>
+    </row>
+    <row r="213" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H213" s="7"/>
-      <c r="P213" s="8"/>
       <c r="Q213" s="8"/>
       <c r="R213" s="8"/>
-      <c r="S213" s="9"/>
+      <c r="S213" s="8"/>
       <c r="T213" s="9"/>
       <c r="U213" s="9"/>
       <c r="V213" s="9"/>
       <c r="W213" s="9"/>
-    </row>
-    <row r="214" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X213" s="9"/>
+    </row>
+    <row r="214" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H214" s="7"/>
-      <c r="P214" s="8"/>
       <c r="Q214" s="8"/>
       <c r="R214" s="8"/>
-      <c r="S214" s="9"/>
+      <c r="S214" s="8"/>
       <c r="T214" s="9"/>
       <c r="U214" s="9"/>
       <c r="V214" s="9"/>
       <c r="W214" s="9"/>
-    </row>
-    <row r="215" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X214" s="9"/>
+    </row>
+    <row r="215" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H215" s="7"/>
-      <c r="P215" s="8"/>
       <c r="Q215" s="8"/>
       <c r="R215" s="8"/>
-      <c r="S215" s="9"/>
+      <c r="S215" s="8"/>
       <c r="T215" s="9"/>
       <c r="U215" s="9"/>
       <c r="V215" s="9"/>
       <c r="W215" s="9"/>
-    </row>
-    <row r="216" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X215" s="9"/>
+    </row>
+    <row r="216" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H216" s="7"/>
-      <c r="P216" s="8"/>
       <c r="Q216" s="8"/>
       <c r="R216" s="8"/>
-      <c r="S216" s="9"/>
+      <c r="S216" s="8"/>
       <c r="T216" s="9"/>
       <c r="U216" s="9"/>
       <c r="V216" s="9"/>
       <c r="W216" s="9"/>
-    </row>
-    <row r="217" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X216" s="9"/>
+    </row>
+    <row r="217" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H217" s="7"/>
-      <c r="P217" s="8"/>
       <c r="Q217" s="8"/>
       <c r="R217" s="8"/>
-      <c r="S217" s="9"/>
+      <c r="S217" s="8"/>
       <c r="T217" s="9"/>
       <c r="U217" s="9"/>
       <c r="V217" s="9"/>
       <c r="W217" s="9"/>
-    </row>
-    <row r="218" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X217" s="9"/>
+    </row>
+    <row r="218" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H218" s="7"/>
-      <c r="P218" s="8"/>
       <c r="Q218" s="8"/>
       <c r="R218" s="8"/>
-      <c r="S218" s="9"/>
+      <c r="S218" s="8"/>
       <c r="T218" s="9"/>
       <c r="U218" s="9"/>
       <c r="V218" s="9"/>
       <c r="W218" s="9"/>
-    </row>
-    <row r="219" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X218" s="9"/>
+    </row>
+    <row r="219" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H219" s="7"/>
-      <c r="P219" s="8"/>
       <c r="Q219" s="8"/>
       <c r="R219" s="8"/>
-      <c r="S219" s="9"/>
+      <c r="S219" s="8"/>
       <c r="T219" s="9"/>
       <c r="U219" s="9"/>
       <c r="V219" s="9"/>
       <c r="W219" s="9"/>
-    </row>
-    <row r="220" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X219" s="9"/>
+    </row>
+    <row r="220" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H220" s="7"/>
-      <c r="P220" s="8"/>
       <c r="Q220" s="8"/>
       <c r="R220" s="8"/>
-      <c r="S220" s="9"/>
+      <c r="S220" s="8"/>
       <c r="T220" s="9"/>
       <c r="U220" s="9"/>
       <c r="V220" s="9"/>
       <c r="W220" s="9"/>
-    </row>
-    <row r="221" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X220" s="9"/>
+    </row>
+    <row r="221" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H221" s="7"/>
-      <c r="P221" s="8"/>
       <c r="Q221" s="8"/>
       <c r="R221" s="8"/>
-      <c r="S221" s="9"/>
+      <c r="S221" s="8"/>
       <c r="T221" s="9"/>
       <c r="U221" s="9"/>
       <c r="V221" s="9"/>
       <c r="W221" s="9"/>
-    </row>
-    <row r="222" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X221" s="9"/>
+    </row>
+    <row r="222" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H222" s="7"/>
-      <c r="P222" s="8"/>
       <c r="Q222" s="8"/>
       <c r="R222" s="8"/>
-      <c r="S222" s="9"/>
+      <c r="S222" s="8"/>
       <c r="T222" s="9"/>
       <c r="U222" s="9"/>
       <c r="V222" s="9"/>
       <c r="W222" s="9"/>
-    </row>
-    <row r="223" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X222" s="9"/>
+    </row>
+    <row r="223" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H223" s="7"/>
-      <c r="P223" s="8"/>
       <c r="Q223" s="8"/>
       <c r="R223" s="8"/>
-      <c r="S223" s="9"/>
+      <c r="S223" s="8"/>
       <c r="T223" s="9"/>
       <c r="U223" s="9"/>
       <c r="V223" s="9"/>
       <c r="W223" s="9"/>
-    </row>
-    <row r="224" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X223" s="9"/>
+    </row>
+    <row r="224" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H224" s="7"/>
-      <c r="P224" s="8"/>
       <c r="Q224" s="8"/>
       <c r="R224" s="8"/>
-      <c r="S224" s="9"/>
+      <c r="S224" s="8"/>
       <c r="T224" s="9"/>
       <c r="U224" s="9"/>
       <c r="V224" s="9"/>
       <c r="W224" s="9"/>
-    </row>
-    <row r="225" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X224" s="9"/>
+    </row>
+    <row r="225" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H225" s="7"/>
-      <c r="P225" s="8"/>
       <c r="Q225" s="8"/>
       <c r="R225" s="8"/>
-      <c r="S225" s="9"/>
+      <c r="S225" s="8"/>
       <c r="T225" s="9"/>
       <c r="U225" s="9"/>
       <c r="V225" s="9"/>
       <c r="W225" s="9"/>
-    </row>
-    <row r="226" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X225" s="9"/>
+    </row>
+    <row r="226" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H226" s="7"/>
-      <c r="P226" s="8"/>
       <c r="Q226" s="8"/>
       <c r="R226" s="8"/>
-      <c r="S226" s="9"/>
+      <c r="S226" s="8"/>
       <c r="T226" s="9"/>
       <c r="U226" s="9"/>
       <c r="V226" s="9"/>
       <c r="W226" s="9"/>
-    </row>
-    <row r="227" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X226" s="9"/>
+    </row>
+    <row r="227" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H227" s="7"/>
-      <c r="P227" s="8"/>
       <c r="Q227" s="8"/>
       <c r="R227" s="8"/>
-      <c r="S227" s="9"/>
+      <c r="S227" s="8"/>
       <c r="T227" s="9"/>
       <c r="U227" s="9"/>
       <c r="V227" s="9"/>
       <c r="W227" s="9"/>
-    </row>
-    <row r="228" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X227" s="9"/>
+    </row>
+    <row r="228" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H228" s="7"/>
-      <c r="P228" s="8"/>
       <c r="Q228" s="8"/>
       <c r="R228" s="8"/>
-      <c r="S228" s="9"/>
+      <c r="S228" s="8"/>
       <c r="T228" s="9"/>
       <c r="U228" s="9"/>
       <c r="V228" s="9"/>
       <c r="W228" s="9"/>
-    </row>
-    <row r="229" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X228" s="9"/>
+    </row>
+    <row r="229" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H229" s="7"/>
-      <c r="P229" s="8"/>
       <c r="Q229" s="8"/>
       <c r="R229" s="8"/>
-      <c r="S229" s="9"/>
+      <c r="S229" s="8"/>
       <c r="T229" s="9"/>
       <c r="U229" s="9"/>
       <c r="V229" s="9"/>
       <c r="W229" s="9"/>
-    </row>
-    <row r="230" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X229" s="9"/>
+    </row>
+    <row r="230" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H230" s="7"/>
-      <c r="P230" s="8"/>
       <c r="Q230" s="8"/>
       <c r="R230" s="8"/>
-      <c r="S230" s="9"/>
+      <c r="S230" s="8"/>
       <c r="T230" s="9"/>
       <c r="U230" s="9"/>
       <c r="V230" s="9"/>
       <c r="W230" s="9"/>
-    </row>
-    <row r="231" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X230" s="9"/>
+    </row>
+    <row r="231" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H231" s="7"/>
-      <c r="P231" s="8"/>
       <c r="Q231" s="8"/>
       <c r="R231" s="8"/>
-      <c r="S231" s="9"/>
+      <c r="S231" s="8"/>
       <c r="T231" s="9"/>
       <c r="U231" s="9"/>
       <c r="V231" s="9"/>
       <c r="W231" s="9"/>
-    </row>
-    <row r="232" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X231" s="9"/>
+    </row>
+    <row r="232" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H232" s="7"/>
-      <c r="P232" s="8"/>
       <c r="Q232" s="8"/>
       <c r="R232" s="8"/>
-      <c r="S232" s="9"/>
+      <c r="S232" s="8"/>
       <c r="T232" s="9"/>
       <c r="U232" s="9"/>
       <c r="V232" s="9"/>
       <c r="W232" s="9"/>
-    </row>
-    <row r="233" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X232" s="9"/>
+    </row>
+    <row r="233" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H233" s="7"/>
-      <c r="P233" s="8"/>
       <c r="Q233" s="8"/>
       <c r="R233" s="8"/>
-      <c r="S233" s="9"/>
+      <c r="S233" s="8"/>
       <c r="T233" s="9"/>
       <c r="U233" s="9"/>
       <c r="V233" s="9"/>
       <c r="W233" s="9"/>
-    </row>
-    <row r="234" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X233" s="9"/>
+    </row>
+    <row r="234" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H234" s="7"/>
-      <c r="P234" s="8"/>
       <c r="Q234" s="8"/>
       <c r="R234" s="8"/>
-      <c r="S234" s="9"/>
+      <c r="S234" s="8"/>
       <c r="T234" s="9"/>
       <c r="U234" s="9"/>
       <c r="V234" s="9"/>
       <c r="W234" s="9"/>
-    </row>
-    <row r="235" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X234" s="9"/>
+    </row>
+    <row r="235" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H235" s="7"/>
-      <c r="P235" s="8"/>
       <c r="Q235" s="8"/>
       <c r="R235" s="8"/>
-      <c r="S235" s="9"/>
+      <c r="S235" s="8"/>
       <c r="T235" s="9"/>
       <c r="U235" s="9"/>
       <c r="V235" s="9"/>
       <c r="W235" s="9"/>
-    </row>
-    <row r="236" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X235" s="9"/>
+    </row>
+    <row r="236" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H236" s="7"/>
-      <c r="P236" s="8"/>
       <c r="Q236" s="8"/>
       <c r="R236" s="8"/>
-      <c r="S236" s="9"/>
+      <c r="S236" s="8"/>
       <c r="T236" s="9"/>
       <c r="U236" s="9"/>
       <c r="V236" s="9"/>
       <c r="W236" s="9"/>
-    </row>
-    <row r="237" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X236" s="9"/>
+    </row>
+    <row r="237" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H237" s="7"/>
-      <c r="P237" s="8"/>
       <c r="Q237" s="8"/>
       <c r="R237" s="8"/>
-      <c r="S237" s="9"/>
+      <c r="S237" s="8"/>
       <c r="T237" s="9"/>
       <c r="U237" s="9"/>
       <c r="V237" s="9"/>
       <c r="W237" s="9"/>
-    </row>
-    <row r="238" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X237" s="9"/>
+    </row>
+    <row r="238" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H238" s="7"/>
-      <c r="P238" s="8"/>
       <c r="Q238" s="8"/>
       <c r="R238" s="8"/>
-      <c r="S238" s="9"/>
+      <c r="S238" s="8"/>
       <c r="T238" s="9"/>
       <c r="U238" s="9"/>
       <c r="V238" s="9"/>
       <c r="W238" s="9"/>
-    </row>
-    <row r="239" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X238" s="9"/>
+    </row>
+    <row r="239" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H239" s="7"/>
-      <c r="P239" s="8"/>
       <c r="Q239" s="8"/>
       <c r="R239" s="8"/>
-      <c r="S239" s="9"/>
+      <c r="S239" s="8"/>
       <c r="T239" s="9"/>
       <c r="U239" s="9"/>
       <c r="V239" s="9"/>
       <c r="W239" s="9"/>
-    </row>
-    <row r="240" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X239" s="9"/>
+    </row>
+    <row r="240" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H240" s="7"/>
-      <c r="P240" s="8"/>
       <c r="Q240" s="8"/>
       <c r="R240" s="8"/>
-      <c r="S240" s="9"/>
+      <c r="S240" s="8"/>
       <c r="T240" s="9"/>
       <c r="U240" s="9"/>
       <c r="V240" s="9"/>
       <c r="W240" s="9"/>
-    </row>
-    <row r="241" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X240" s="9"/>
+    </row>
+    <row r="241" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H241" s="7"/>
-      <c r="P241" s="8"/>
       <c r="Q241" s="8"/>
       <c r="R241" s="8"/>
-      <c r="S241" s="9"/>
+      <c r="S241" s="8"/>
       <c r="T241" s="9"/>
       <c r="U241" s="9"/>
       <c r="V241" s="9"/>
       <c r="W241" s="9"/>
-    </row>
-    <row r="242" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X241" s="9"/>
+    </row>
+    <row r="242" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H242" s="7"/>
-      <c r="P242" s="8"/>
       <c r="Q242" s="8"/>
       <c r="R242" s="8"/>
-      <c r="S242" s="9"/>
+      <c r="S242" s="8"/>
       <c r="T242" s="9"/>
       <c r="U242" s="9"/>
       <c r="V242" s="9"/>
       <c r="W242" s="9"/>
-    </row>
-    <row r="243" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X242" s="9"/>
+    </row>
+    <row r="243" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H243" s="7"/>
-      <c r="P243" s="8"/>
       <c r="Q243" s="8"/>
       <c r="R243" s="8"/>
-      <c r="S243" s="9"/>
+      <c r="S243" s="8"/>
       <c r="T243" s="9"/>
       <c r="U243" s="9"/>
       <c r="V243" s="9"/>
       <c r="W243" s="9"/>
-    </row>
-    <row r="244" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X243" s="9"/>
+    </row>
+    <row r="244" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H244" s="7"/>
-      <c r="P244" s="8"/>
       <c r="Q244" s="8"/>
       <c r="R244" s="8"/>
-      <c r="S244" s="9"/>
+      <c r="S244" s="8"/>
       <c r="T244" s="9"/>
       <c r="U244" s="9"/>
       <c r="V244" s="9"/>
       <c r="W244" s="9"/>
-    </row>
-    <row r="245" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X244" s="9"/>
+    </row>
+    <row r="245" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H245" s="7"/>
-      <c r="P245" s="8"/>
       <c r="Q245" s="8"/>
       <c r="R245" s="8"/>
-      <c r="S245" s="9"/>
+      <c r="S245" s="8"/>
       <c r="T245" s="9"/>
       <c r="U245" s="9"/>
       <c r="V245" s="9"/>
       <c r="W245" s="9"/>
-    </row>
-    <row r="246" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X245" s="9"/>
+    </row>
+    <row r="246" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H246" s="7"/>
-      <c r="P246" s="8"/>
       <c r="Q246" s="8"/>
       <c r="R246" s="8"/>
-      <c r="S246" s="9"/>
+      <c r="S246" s="8"/>
       <c r="T246" s="9"/>
       <c r="U246" s="9"/>
       <c r="V246" s="9"/>
       <c r="W246" s="9"/>
-    </row>
-    <row r="247" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X246" s="9"/>
+    </row>
+    <row r="247" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H247" s="7"/>
-      <c r="P247" s="8"/>
       <c r="Q247" s="8"/>
       <c r="R247" s="8"/>
-      <c r="S247" s="9"/>
+      <c r="S247" s="8"/>
       <c r="T247" s="9"/>
       <c r="U247" s="9"/>
       <c r="V247" s="9"/>
       <c r="W247" s="9"/>
-    </row>
-    <row r="248" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X247" s="9"/>
+    </row>
+    <row r="248" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H248" s="7"/>
-      <c r="P248" s="8"/>
       <c r="Q248" s="8"/>
       <c r="R248" s="8"/>
-      <c r="S248" s="9"/>
+      <c r="S248" s="8"/>
       <c r="T248" s="9"/>
       <c r="U248" s="9"/>
       <c r="V248" s="9"/>
       <c r="W248" s="9"/>
-    </row>
-    <row r="249" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X248" s="9"/>
+    </row>
+    <row r="249" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H249" s="7"/>
-      <c r="P249" s="8"/>
       <c r="Q249" s="8"/>
       <c r="R249" s="8"/>
-      <c r="S249" s="9"/>
+      <c r="S249" s="8"/>
       <c r="T249" s="9"/>
       <c r="U249" s="9"/>
       <c r="V249" s="9"/>
       <c r="W249" s="9"/>
-    </row>
-    <row r="250" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X249" s="9"/>
+    </row>
+    <row r="250" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H250" s="7"/>
-      <c r="P250" s="8"/>
       <c r="Q250" s="8"/>
       <c r="R250" s="8"/>
-      <c r="S250" s="9"/>
+      <c r="S250" s="8"/>
       <c r="T250" s="9"/>
       <c r="U250" s="9"/>
       <c r="V250" s="9"/>
       <c r="W250" s="9"/>
-    </row>
-    <row r="251" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X250" s="9"/>
+    </row>
+    <row r="251" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H251" s="7"/>
-      <c r="P251" s="8"/>
       <c r="Q251" s="8"/>
       <c r="R251" s="8"/>
-      <c r="S251" s="9"/>
+      <c r="S251" s="8"/>
       <c r="T251" s="9"/>
       <c r="U251" s="9"/>
       <c r="V251" s="9"/>
       <c r="W251" s="9"/>
-    </row>
-    <row r="252" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X251" s="9"/>
+    </row>
+    <row r="252" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H252" s="7"/>
-      <c r="P252" s="8"/>
       <c r="Q252" s="8"/>
       <c r="R252" s="8"/>
-      <c r="S252" s="9"/>
+      <c r="S252" s="8"/>
       <c r="T252" s="9"/>
       <c r="U252" s="9"/>
       <c r="V252" s="9"/>
       <c r="W252" s="9"/>
-    </row>
-    <row r="253" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X252" s="9"/>
+    </row>
+    <row r="253" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H253" s="7"/>
-      <c r="P253" s="8"/>
       <c r="Q253" s="8"/>
       <c r="R253" s="8"/>
-      <c r="S253" s="9"/>
+      <c r="S253" s="8"/>
       <c r="T253" s="9"/>
       <c r="U253" s="9"/>
       <c r="V253" s="9"/>
       <c r="W253" s="9"/>
-    </row>
-    <row r="254" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X253" s="9"/>
+    </row>
+    <row r="254" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H254" s="7"/>
-      <c r="P254" s="8"/>
       <c r="Q254" s="8"/>
       <c r="R254" s="8"/>
-      <c r="S254" s="9"/>
+      <c r="S254" s="8"/>
       <c r="T254" s="9"/>
       <c r="U254" s="9"/>
       <c r="V254" s="9"/>
       <c r="W254" s="9"/>
-    </row>
-    <row r="255" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X254" s="9"/>
+    </row>
+    <row r="255" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H255" s="7"/>
-      <c r="P255" s="8"/>
       <c r="Q255" s="8"/>
       <c r="R255" s="8"/>
-      <c r="S255" s="9"/>
+      <c r="S255" s="8"/>
       <c r="T255" s="9"/>
       <c r="U255" s="9"/>
       <c r="V255" s="9"/>
       <c r="W255" s="9"/>
-    </row>
-    <row r="256" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X255" s="9"/>
+    </row>
+    <row r="256" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H256" s="7"/>
-      <c r="P256" s="8"/>
       <c r="Q256" s="8"/>
       <c r="R256" s="8"/>
-      <c r="S256" s="9"/>
+      <c r="S256" s="8"/>
       <c r="T256" s="9"/>
       <c r="U256" s="9"/>
       <c r="V256" s="9"/>
       <c r="W256" s="9"/>
-    </row>
-    <row r="257" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X256" s="9"/>
+    </row>
+    <row r="257" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H257" s="7"/>
-      <c r="P257" s="8"/>
       <c r="Q257" s="8"/>
       <c r="R257" s="8"/>
-      <c r="S257" s="9"/>
+      <c r="S257" s="8"/>
       <c r="T257" s="9"/>
       <c r="U257" s="9"/>
       <c r="V257" s="9"/>
       <c r="W257" s="9"/>
-    </row>
-    <row r="258" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X257" s="9"/>
+    </row>
+    <row r="258" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H258" s="7"/>
-      <c r="P258" s="8"/>
       <c r="Q258" s="8"/>
       <c r="R258" s="8"/>
-      <c r="S258" s="9"/>
+      <c r="S258" s="8"/>
       <c r="T258" s="9"/>
       <c r="U258" s="9"/>
       <c r="V258" s="9"/>
       <c r="W258" s="9"/>
-    </row>
-    <row r="259" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X258" s="9"/>
+    </row>
+    <row r="259" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H259" s="7"/>
-      <c r="P259" s="8"/>
       <c r="Q259" s="8"/>
       <c r="R259" s="8"/>
-      <c r="S259" s="9"/>
+      <c r="S259" s="8"/>
       <c r="T259" s="9"/>
       <c r="U259" s="9"/>
       <c r="V259" s="9"/>
       <c r="W259" s="9"/>
-    </row>
-    <row r="260" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X259" s="9"/>
+    </row>
+    <row r="260" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H260" s="7"/>
-      <c r="P260" s="8"/>
       <c r="Q260" s="8"/>
       <c r="R260" s="8"/>
-      <c r="S260" s="9"/>
+      <c r="S260" s="8"/>
       <c r="T260" s="9"/>
       <c r="U260" s="9"/>
       <c r="V260" s="9"/>
       <c r="W260" s="9"/>
-    </row>
-    <row r="261" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X260" s="9"/>
+    </row>
+    <row r="261" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H261" s="7"/>
-      <c r="P261" s="8"/>
       <c r="Q261" s="8"/>
       <c r="R261" s="8"/>
-      <c r="S261" s="9"/>
+      <c r="S261" s="8"/>
       <c r="T261" s="9"/>
       <c r="U261" s="9"/>
       <c r="V261" s="9"/>
       <c r="W261" s="9"/>
-    </row>
-    <row r="262" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X261" s="9"/>
+    </row>
+    <row r="262" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H262" s="7"/>
-      <c r="P262" s="8"/>
       <c r="Q262" s="8"/>
       <c r="R262" s="8"/>
-      <c r="S262" s="9"/>
+      <c r="S262" s="8"/>
       <c r="T262" s="9"/>
       <c r="U262" s="9"/>
       <c r="V262" s="9"/>
       <c r="W262" s="9"/>
-    </row>
-    <row r="263" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X262" s="9"/>
+    </row>
+    <row r="263" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H263" s="7"/>
-      <c r="P263" s="8"/>
       <c r="Q263" s="8"/>
       <c r="R263" s="8"/>
-      <c r="S263" s="9"/>
+      <c r="S263" s="8"/>
       <c r="T263" s="9"/>
       <c r="U263" s="9"/>
       <c r="V263" s="9"/>
       <c r="W263" s="9"/>
-    </row>
-    <row r="264" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X263" s="9"/>
+    </row>
+    <row r="264" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H264" s="7"/>
-      <c r="P264" s="8"/>
       <c r="Q264" s="8"/>
       <c r="R264" s="8"/>
-      <c r="S264" s="9"/>
+      <c r="S264" s="8"/>
       <c r="T264" s="9"/>
       <c r="U264" s="9"/>
       <c r="V264" s="9"/>
       <c r="W264" s="9"/>
-    </row>
-    <row r="265" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X264" s="9"/>
+    </row>
+    <row r="265" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H265" s="7"/>
-      <c r="P265" s="8"/>
       <c r="Q265" s="8"/>
       <c r="R265" s="8"/>
-      <c r="S265" s="9"/>
+      <c r="S265" s="8"/>
       <c r="T265" s="9"/>
       <c r="U265" s="9"/>
       <c r="V265" s="9"/>
       <c r="W265" s="9"/>
-    </row>
-    <row r="266" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X265" s="9"/>
+    </row>
+    <row r="266" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H266" s="7"/>
-      <c r="P266" s="8"/>
       <c r="Q266" s="8"/>
       <c r="R266" s="8"/>
-      <c r="S266" s="9"/>
+      <c r="S266" s="8"/>
       <c r="T266" s="9"/>
       <c r="U266" s="9"/>
       <c r="V266" s="9"/>
       <c r="W266" s="9"/>
-    </row>
-    <row r="267" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X266" s="9"/>
+    </row>
+    <row r="267" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H267" s="7"/>
-      <c r="P267" s="8"/>
       <c r="Q267" s="8"/>
       <c r="R267" s="8"/>
-      <c r="S267" s="9"/>
+      <c r="S267" s="8"/>
       <c r="T267" s="9"/>
       <c r="U267" s="9"/>
       <c r="V267" s="9"/>
       <c r="W267" s="9"/>
-    </row>
-    <row r="268" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X267" s="9"/>
+    </row>
+    <row r="268" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H268" s="7"/>
-      <c r="P268" s="8"/>
       <c r="Q268" s="8"/>
       <c r="R268" s="8"/>
-      <c r="S268" s="9"/>
+      <c r="S268" s="8"/>
       <c r="T268" s="9"/>
       <c r="U268" s="9"/>
       <c r="V268" s="9"/>
       <c r="W268" s="9"/>
-    </row>
-    <row r="269" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X268" s="9"/>
+    </row>
+    <row r="269" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H269" s="7"/>
-      <c r="P269" s="8"/>
       <c r="Q269" s="8"/>
       <c r="R269" s="8"/>
-      <c r="S269" s="9"/>
+      <c r="S269" s="8"/>
       <c r="T269" s="9"/>
       <c r="U269" s="9"/>
       <c r="V269" s="9"/>
       <c r="W269" s="9"/>
-    </row>
-    <row r="270" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X269" s="9"/>
+    </row>
+    <row r="270" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H270" s="7"/>
-      <c r="P270" s="8"/>
       <c r="Q270" s="8"/>
       <c r="R270" s="8"/>
-      <c r="S270" s="9"/>
+      <c r="S270" s="8"/>
       <c r="T270" s="9"/>
       <c r="U270" s="9"/>
       <c r="V270" s="9"/>
       <c r="W270" s="9"/>
-    </row>
-    <row r="271" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X270" s="9"/>
+    </row>
+    <row r="271" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H271" s="7"/>
-      <c r="P271" s="8"/>
       <c r="Q271" s="8"/>
       <c r="R271" s="8"/>
-      <c r="S271" s="9"/>
+      <c r="S271" s="8"/>
       <c r="T271" s="9"/>
       <c r="U271" s="9"/>
       <c r="V271" s="9"/>
       <c r="W271" s="9"/>
-    </row>
-    <row r="272" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X271" s="9"/>
+    </row>
+    <row r="272" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H272" s="7"/>
-      <c r="P272" s="8"/>
       <c r="Q272" s="8"/>
       <c r="R272" s="8"/>
-      <c r="S272" s="9"/>
+      <c r="S272" s="8"/>
       <c r="T272" s="9"/>
       <c r="U272" s="9"/>
       <c r="V272" s="9"/>
       <c r="W272" s="9"/>
-    </row>
-    <row r="273" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X272" s="9"/>
+    </row>
+    <row r="273" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H273" s="7"/>
-      <c r="P273" s="8"/>
       <c r="Q273" s="8"/>
       <c r="R273" s="8"/>
-      <c r="S273" s="9"/>
+      <c r="S273" s="8"/>
       <c r="T273" s="9"/>
       <c r="U273" s="9"/>
       <c r="V273" s="9"/>
       <c r="W273" s="9"/>
-    </row>
-    <row r="274" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X273" s="9"/>
+    </row>
+    <row r="274" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H274" s="7"/>
-      <c r="P274" s="8"/>
       <c r="Q274" s="8"/>
       <c r="R274" s="8"/>
-      <c r="S274" s="9"/>
+      <c r="S274" s="8"/>
       <c r="T274" s="9"/>
       <c r="U274" s="9"/>
       <c r="V274" s="9"/>
       <c r="W274" s="9"/>
-    </row>
-    <row r="275" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X274" s="9"/>
+    </row>
+    <row r="275" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H275" s="7"/>
-      <c r="P275" s="8"/>
       <c r="Q275" s="8"/>
       <c r="R275" s="8"/>
-      <c r="S275" s="9"/>
+      <c r="S275" s="8"/>
       <c r="T275" s="9"/>
       <c r="U275" s="9"/>
       <c r="V275" s="9"/>
       <c r="W275" s="9"/>
-    </row>
-    <row r="276" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X275" s="9"/>
+    </row>
+    <row r="276" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H276" s="7"/>
-      <c r="P276" s="8"/>
       <c r="Q276" s="8"/>
       <c r="R276" s="8"/>
-      <c r="S276" s="9"/>
+      <c r="S276" s="8"/>
       <c r="T276" s="9"/>
       <c r="U276" s="9"/>
       <c r="V276" s="9"/>
       <c r="W276" s="9"/>
-    </row>
-    <row r="277" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X276" s="9"/>
+    </row>
+    <row r="277" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H277" s="7"/>
-      <c r="P277" s="8"/>
       <c r="Q277" s="8"/>
       <c r="R277" s="8"/>
-      <c r="S277" s="9"/>
+      <c r="S277" s="8"/>
       <c r="T277" s="9"/>
       <c r="U277" s="9"/>
       <c r="V277" s="9"/>
       <c r="W277" s="9"/>
-    </row>
-    <row r="278" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X277" s="9"/>
+    </row>
+    <row r="278" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H278" s="7"/>
-      <c r="P278" s="8"/>
       <c r="Q278" s="8"/>
       <c r="R278" s="8"/>
-      <c r="S278" s="9"/>
+      <c r="S278" s="8"/>
       <c r="T278" s="9"/>
       <c r="U278" s="9"/>
       <c r="V278" s="9"/>
       <c r="W278" s="9"/>
-    </row>
-    <row r="279" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X278" s="9"/>
+    </row>
+    <row r="279" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H279" s="7"/>
-      <c r="P279" s="8"/>
       <c r="Q279" s="8"/>
       <c r="R279" s="8"/>
-      <c r="S279" s="9"/>
+      <c r="S279" s="8"/>
       <c r="T279" s="9"/>
       <c r="U279" s="9"/>
       <c r="V279" s="9"/>
       <c r="W279" s="9"/>
-    </row>
-    <row r="280" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X279" s="9"/>
+    </row>
+    <row r="280" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H280" s="7"/>
-      <c r="P280" s="8"/>
       <c r="Q280" s="8"/>
       <c r="R280" s="8"/>
-      <c r="S280" s="9"/>
+      <c r="S280" s="8"/>
       <c r="T280" s="9"/>
       <c r="U280" s="9"/>
       <c r="V280" s="9"/>
       <c r="W280" s="9"/>
-    </row>
-    <row r="281" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X280" s="9"/>
+    </row>
+    <row r="281" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H281" s="7"/>
-      <c r="P281" s="8"/>
       <c r="Q281" s="8"/>
       <c r="R281" s="8"/>
-      <c r="S281" s="9"/>
+      <c r="S281" s="8"/>
       <c r="T281" s="9"/>
       <c r="U281" s="9"/>
       <c r="V281" s="9"/>
       <c r="W281" s="9"/>
-    </row>
-    <row r="282" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X281" s="9"/>
+    </row>
+    <row r="282" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H282" s="7"/>
-      <c r="P282" s="8"/>
       <c r="Q282" s="8"/>
       <c r="R282" s="8"/>
-      <c r="S282" s="9"/>
+      <c r="S282" s="8"/>
       <c r="T282" s="9"/>
       <c r="U282" s="9"/>
       <c r="V282" s="9"/>
       <c r="W282" s="9"/>
-    </row>
-    <row r="283" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X282" s="9"/>
+    </row>
+    <row r="283" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H283" s="7"/>
-      <c r="P283" s="8"/>
       <c r="Q283" s="8"/>
       <c r="R283" s="8"/>
-      <c r="S283" s="9"/>
+      <c r="S283" s="8"/>
       <c r="T283" s="9"/>
       <c r="U283" s="9"/>
       <c r="V283" s="9"/>
       <c r="W283" s="9"/>
-    </row>
-    <row r="284" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X283" s="9"/>
+    </row>
+    <row r="284" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H284" s="7"/>
-      <c r="P284" s="8"/>
       <c r="Q284" s="8"/>
       <c r="R284" s="8"/>
-      <c r="S284" s="9"/>
+      <c r="S284" s="8"/>
       <c r="T284" s="9"/>
       <c r="U284" s="9"/>
       <c r="V284" s="9"/>
       <c r="W284" s="9"/>
-    </row>
-    <row r="285" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X284" s="9"/>
+    </row>
+    <row r="285" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H285" s="7"/>
-      <c r="P285" s="8"/>
       <c r="Q285" s="8"/>
       <c r="R285" s="8"/>
-      <c r="S285" s="9"/>
+      <c r="S285" s="8"/>
       <c r="T285" s="9"/>
       <c r="U285" s="9"/>
       <c r="V285" s="9"/>
       <c r="W285" s="9"/>
-    </row>
-    <row r="286" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X285" s="9"/>
+    </row>
+    <row r="286" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H286" s="7"/>
-      <c r="P286" s="8"/>
       <c r="Q286" s="8"/>
       <c r="R286" s="8"/>
-      <c r="S286" s="9"/>
+      <c r="S286" s="8"/>
       <c r="T286" s="9"/>
       <c r="U286" s="9"/>
       <c r="V286" s="9"/>
       <c r="W286" s="9"/>
-    </row>
-    <row r="287" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X286" s="9"/>
+    </row>
+    <row r="287" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H287" s="7"/>
-      <c r="P287" s="8"/>
       <c r="Q287" s="8"/>
       <c r="R287" s="8"/>
-      <c r="S287" s="9"/>
+      <c r="S287" s="8"/>
       <c r="T287" s="9"/>
       <c r="U287" s="9"/>
       <c r="V287" s="9"/>
       <c r="W287" s="9"/>
-    </row>
-    <row r="288" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X287" s="9"/>
+    </row>
+    <row r="288" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H288" s="7"/>
-      <c r="P288" s="8"/>
       <c r="Q288" s="8"/>
       <c r="R288" s="8"/>
-      <c r="S288" s="9"/>
+      <c r="S288" s="8"/>
       <c r="T288" s="9"/>
       <c r="U288" s="9"/>
       <c r="V288" s="9"/>
       <c r="W288" s="9"/>
-    </row>
-    <row r="289" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X288" s="9"/>
+    </row>
+    <row r="289" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H289" s="7"/>
-      <c r="P289" s="8"/>
       <c r="Q289" s="8"/>
       <c r="R289" s="8"/>
-      <c r="S289" s="9"/>
+      <c r="S289" s="8"/>
       <c r="T289" s="9"/>
       <c r="U289" s="9"/>
       <c r="V289" s="9"/>
       <c r="W289" s="9"/>
-    </row>
-    <row r="290" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X289" s="9"/>
+    </row>
+    <row r="290" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H290" s="7"/>
-      <c r="P290" s="8"/>
       <c r="Q290" s="8"/>
       <c r="R290" s="8"/>
-      <c r="S290" s="9"/>
+      <c r="S290" s="8"/>
       <c r="T290" s="9"/>
       <c r="U290" s="9"/>
       <c r="V290" s="9"/>
       <c r="W290" s="9"/>
-    </row>
-    <row r="291" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X290" s="9"/>
+    </row>
+    <row r="291" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H291" s="7"/>
-      <c r="P291" s="8"/>
       <c r="Q291" s="8"/>
       <c r="R291" s="8"/>
-      <c r="S291" s="9"/>
+      <c r="S291" s="8"/>
       <c r="T291" s="9"/>
       <c r="U291" s="9"/>
       <c r="V291" s="9"/>
       <c r="W291" s="9"/>
-    </row>
-    <row r="292" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X291" s="9"/>
+    </row>
+    <row r="292" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H292" s="7"/>
-      <c r="P292" s="8"/>
       <c r="Q292" s="8"/>
       <c r="R292" s="8"/>
-      <c r="S292" s="9"/>
+      <c r="S292" s="8"/>
       <c r="T292" s="9"/>
       <c r="U292" s="9"/>
       <c r="V292" s="9"/>
       <c r="W292" s="9"/>
-    </row>
-    <row r="293" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X292" s="9"/>
+    </row>
+    <row r="293" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H293" s="7"/>
-      <c r="P293" s="8"/>
       <c r="Q293" s="8"/>
       <c r="R293" s="8"/>
-      <c r="S293" s="9"/>
+      <c r="S293" s="8"/>
       <c r="T293" s="9"/>
       <c r="U293" s="9"/>
       <c r="V293" s="9"/>
       <c r="W293" s="9"/>
-    </row>
-    <row r="294" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X293" s="9"/>
+    </row>
+    <row r="294" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H294" s="7"/>
-      <c r="P294" s="8"/>
       <c r="Q294" s="8"/>
       <c r="R294" s="8"/>
-      <c r="S294" s="9"/>
+      <c r="S294" s="8"/>
       <c r="T294" s="9"/>
       <c r="U294" s="9"/>
       <c r="V294" s="9"/>
       <c r="W294" s="9"/>
-    </row>
-    <row r="295" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X294" s="9"/>
+    </row>
+    <row r="295" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H295" s="7"/>
-      <c r="P295" s="8"/>
       <c r="Q295" s="8"/>
       <c r="R295" s="8"/>
-      <c r="S295" s="9"/>
+      <c r="S295" s="8"/>
       <c r="T295" s="9"/>
       <c r="U295" s="9"/>
       <c r="V295" s="9"/>
       <c r="W295" s="9"/>
-    </row>
-    <row r="296" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X295" s="9"/>
+    </row>
+    <row r="296" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H296" s="7"/>
-      <c r="P296" s="8"/>
       <c r="Q296" s="8"/>
       <c r="R296" s="8"/>
-      <c r="S296" s="9"/>
+      <c r="S296" s="8"/>
       <c r="T296" s="9"/>
       <c r="U296" s="9"/>
       <c r="V296" s="9"/>
       <c r="W296" s="9"/>
-    </row>
-    <row r="297" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X296" s="9"/>
+    </row>
+    <row r="297" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H297" s="7"/>
-      <c r="P297" s="8"/>
       <c r="Q297" s="8"/>
       <c r="R297" s="8"/>
-      <c r="S297" s="9"/>
+      <c r="S297" s="8"/>
       <c r="T297" s="9"/>
       <c r="U297" s="9"/>
       <c r="V297" s="9"/>
       <c r="W297" s="9"/>
-    </row>
-    <row r="298" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X297" s="9"/>
+    </row>
+    <row r="298" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H298" s="7"/>
-      <c r="P298" s="8"/>
       <c r="Q298" s="8"/>
       <c r="R298" s="8"/>
-      <c r="S298" s="9"/>
+      <c r="S298" s="8"/>
       <c r="T298" s="9"/>
       <c r="U298" s="9"/>
       <c r="V298" s="9"/>
       <c r="W298" s="9"/>
-    </row>
-    <row r="299" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X298" s="9"/>
+    </row>
+    <row r="299" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H299" s="7"/>
-      <c r="P299" s="8"/>
       <c r="Q299" s="8"/>
       <c r="R299" s="8"/>
-      <c r="S299" s="9"/>
+      <c r="S299" s="8"/>
       <c r="T299" s="9"/>
       <c r="U299" s="9"/>
       <c r="V299" s="9"/>
       <c r="W299" s="9"/>
-    </row>
-    <row r="300" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X299" s="9"/>
+    </row>
+    <row r="300" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H300" s="7"/>
-      <c r="P300" s="8"/>
       <c r="Q300" s="8"/>
       <c r="R300" s="8"/>
-      <c r="S300" s="9"/>
+      <c r="S300" s="8"/>
       <c r="T300" s="9"/>
       <c r="U300" s="9"/>
       <c r="V300" s="9"/>
       <c r="W300" s="9"/>
-    </row>
-    <row r="301" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X300" s="9"/>
+    </row>
+    <row r="301" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H301" s="7"/>
-      <c r="P301" s="8"/>
       <c r="Q301" s="8"/>
       <c r="R301" s="8"/>
-      <c r="S301" s="9"/>
+      <c r="S301" s="8"/>
       <c r="T301" s="9"/>
       <c r="U301" s="9"/>
       <c r="V301" s="9"/>
       <c r="W301" s="9"/>
-    </row>
-    <row r="302" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X301" s="9"/>
+    </row>
+    <row r="302" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H302" s="7"/>
-      <c r="P302" s="8"/>
       <c r="Q302" s="8"/>
       <c r="R302" s="8"/>
-      <c r="S302" s="9"/>
+      <c r="S302" s="8"/>
       <c r="T302" s="9"/>
       <c r="U302" s="9"/>
       <c r="V302" s="9"/>
       <c r="W302" s="9"/>
-    </row>
-    <row r="303" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X302" s="9"/>
+    </row>
+    <row r="303" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H303" s="7"/>
-      <c r="P303" s="8"/>
       <c r="Q303" s="8"/>
       <c r="R303" s="8"/>
-      <c r="S303" s="9"/>
+      <c r="S303" s="8"/>
       <c r="T303" s="9"/>
       <c r="U303" s="9"/>
       <c r="V303" s="9"/>
       <c r="W303" s="9"/>
-    </row>
-    <row r="304" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X303" s="9"/>
+    </row>
+    <row r="304" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H304" s="7"/>
-      <c r="P304" s="8"/>
       <c r="Q304" s="8"/>
       <c r="R304" s="8"/>
-      <c r="S304" s="9"/>
+      <c r="S304" s="8"/>
       <c r="T304" s="9"/>
       <c r="U304" s="9"/>
       <c r="V304" s="9"/>
       <c r="W304" s="9"/>
-    </row>
-    <row r="305" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X304" s="9"/>
+    </row>
+    <row r="305" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H305" s="7"/>
-      <c r="P305" s="8"/>
       <c r="Q305" s="8"/>
       <c r="R305" s="8"/>
-      <c r="S305" s="9"/>
+      <c r="S305" s="8"/>
       <c r="T305" s="9"/>
       <c r="U305" s="9"/>
       <c r="V305" s="9"/>
       <c r="W305" s="9"/>
-    </row>
-    <row r="306" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X305" s="9"/>
+    </row>
+    <row r="306" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H306" s="7"/>
-      <c r="P306" s="8"/>
       <c r="Q306" s="8"/>
       <c r="R306" s="8"/>
-      <c r="S306" s="9"/>
+      <c r="S306" s="8"/>
       <c r="T306" s="9"/>
       <c r="U306" s="9"/>
       <c r="V306" s="9"/>
       <c r="W306" s="9"/>
-    </row>
-    <row r="307" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X306" s="9"/>
+    </row>
+    <row r="307" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H307" s="7"/>
-      <c r="P307" s="8"/>
       <c r="Q307" s="8"/>
       <c r="R307" s="8"/>
-      <c r="S307" s="9"/>
+      <c r="S307" s="8"/>
       <c r="T307" s="9"/>
       <c r="U307" s="9"/>
       <c r="V307" s="9"/>
       <c r="W307" s="9"/>
-    </row>
-    <row r="308" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X307" s="9"/>
+    </row>
+    <row r="308" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H308" s="7"/>
-      <c r="P308" s="8"/>
       <c r="Q308" s="8"/>
       <c r="R308" s="8"/>
-      <c r="S308" s="9"/>
+      <c r="S308" s="8"/>
       <c r="T308" s="9"/>
       <c r="U308" s="9"/>
       <c r="V308" s="9"/>
       <c r="W308" s="9"/>
-    </row>
-    <row r="309" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X308" s="9"/>
+    </row>
+    <row r="309" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H309" s="7"/>
-      <c r="P309" s="8"/>
       <c r="Q309" s="8"/>
       <c r="R309" s="8"/>
-      <c r="S309" s="9"/>
+      <c r="S309" s="8"/>
       <c r="T309" s="9"/>
       <c r="U309" s="9"/>
       <c r="V309" s="9"/>
       <c r="W309" s="9"/>
-    </row>
-    <row r="310" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X309" s="9"/>
+    </row>
+    <row r="310" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H310" s="7"/>
-      <c r="P310" s="8"/>
       <c r="Q310" s="8"/>
       <c r="R310" s="8"/>
-      <c r="S310" s="9"/>
+      <c r="S310" s="8"/>
       <c r="T310" s="9"/>
       <c r="U310" s="9"/>
       <c r="V310" s="9"/>
       <c r="W310" s="9"/>
-    </row>
-    <row r="311" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X310" s="9"/>
+    </row>
+    <row r="311" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H311" s="7"/>
-      <c r="P311" s="8"/>
       <c r="Q311" s="8"/>
       <c r="R311" s="8"/>
-      <c r="S311" s="9"/>
+      <c r="S311" s="8"/>
       <c r="T311" s="9"/>
       <c r="U311" s="9"/>
       <c r="V311" s="9"/>
       <c r="W311" s="9"/>
-    </row>
-    <row r="312" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X311" s="9"/>
+    </row>
+    <row r="312" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H312" s="7"/>
-      <c r="P312" s="8"/>
       <c r="Q312" s="8"/>
       <c r="R312" s="8"/>
-      <c r="S312" s="9"/>
+      <c r="S312" s="8"/>
       <c r="T312" s="9"/>
       <c r="U312" s="9"/>
       <c r="V312" s="9"/>
       <c r="W312" s="9"/>
-    </row>
-    <row r="313" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X312" s="9"/>
+    </row>
+    <row r="313" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H313" s="7"/>
-      <c r="P313" s="8"/>
       <c r="Q313" s="8"/>
       <c r="R313" s="8"/>
-      <c r="S313" s="9"/>
+      <c r="S313" s="8"/>
       <c r="T313" s="9"/>
       <c r="U313" s="9"/>
       <c r="V313" s="9"/>
       <c r="W313" s="9"/>
-    </row>
-    <row r="314" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X313" s="9"/>
+    </row>
+    <row r="314" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H314" s="7"/>
-      <c r="P314" s="8"/>
       <c r="Q314" s="8"/>
       <c r="R314" s="8"/>
-      <c r="S314" s="9"/>
+      <c r="S314" s="8"/>
       <c r="T314" s="9"/>
       <c r="U314" s="9"/>
       <c r="V314" s="9"/>
       <c r="W314" s="9"/>
-    </row>
-    <row r="315" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X314" s="9"/>
+    </row>
+    <row r="315" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H315" s="7"/>
-      <c r="P315" s="8"/>
       <c r="Q315" s="8"/>
       <c r="R315" s="8"/>
-      <c r="S315" s="9"/>
+      <c r="S315" s="8"/>
       <c r="T315" s="9"/>
       <c r="U315" s="9"/>
       <c r="V315" s="9"/>
       <c r="W315" s="9"/>
-    </row>
-    <row r="316" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X315" s="9"/>
+    </row>
+    <row r="316" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H316" s="7"/>
-      <c r="P316" s="8"/>
       <c r="Q316" s="8"/>
       <c r="R316" s="8"/>
-      <c r="S316" s="9"/>
+      <c r="S316" s="8"/>
       <c r="T316" s="9"/>
       <c r="U316" s="9"/>
       <c r="V316" s="9"/>
       <c r="W316" s="9"/>
-    </row>
-    <row r="317" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X316" s="9"/>
+    </row>
+    <row r="317" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H317" s="7"/>
-      <c r="P317" s="8"/>
       <c r="Q317" s="8"/>
       <c r="R317" s="8"/>
-      <c r="S317" s="9"/>
+      <c r="S317" s="8"/>
       <c r="T317" s="9"/>
       <c r="U317" s="9"/>
       <c r="V317" s="9"/>
       <c r="W317" s="9"/>
-    </row>
-    <row r="318" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X317" s="9"/>
+    </row>
+    <row r="318" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H318" s="7"/>
-      <c r="P318" s="8"/>
       <c r="Q318" s="8"/>
       <c r="R318" s="8"/>
-      <c r="S318" s="9"/>
+      <c r="S318" s="8"/>
       <c r="T318" s="9"/>
       <c r="U318" s="9"/>
       <c r="V318" s="9"/>
       <c r="W318" s="9"/>
-    </row>
-    <row r="319" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X318" s="9"/>
+    </row>
+    <row r="319" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H319" s="7"/>
-      <c r="P319" s="8"/>
       <c r="Q319" s="8"/>
       <c r="R319" s="8"/>
-      <c r="S319" s="9"/>
+      <c r="S319" s="8"/>
       <c r="T319" s="9"/>
       <c r="U319" s="9"/>
       <c r="V319" s="9"/>
       <c r="W319" s="9"/>
-    </row>
-    <row r="320" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X319" s="9"/>
+    </row>
+    <row r="320" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H320" s="7"/>
-      <c r="P320" s="8"/>
       <c r="Q320" s="8"/>
       <c r="R320" s="8"/>
-      <c r="S320" s="9"/>
+      <c r="S320" s="8"/>
       <c r="T320" s="9"/>
       <c r="U320" s="9"/>
       <c r="V320" s="9"/>
       <c r="W320" s="9"/>
-    </row>
-    <row r="321" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X320" s="9"/>
+    </row>
+    <row r="321" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H321" s="7"/>
-      <c r="P321" s="8"/>
       <c r="Q321" s="8"/>
       <c r="R321" s="8"/>
-      <c r="S321" s="9"/>
+      <c r="S321" s="8"/>
       <c r="T321" s="9"/>
       <c r="U321" s="9"/>
       <c r="V321" s="9"/>
       <c r="W321" s="9"/>
-    </row>
-    <row r="322" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X321" s="9"/>
+    </row>
+    <row r="322" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H322" s="7"/>
-      <c r="P322" s="8"/>
       <c r="Q322" s="8"/>
       <c r="R322" s="8"/>
-      <c r="S322" s="9"/>
+      <c r="S322" s="8"/>
       <c r="T322" s="9"/>
       <c r="U322" s="9"/>
       <c r="V322" s="9"/>
       <c r="W322" s="9"/>
-    </row>
-    <row r="323" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X322" s="9"/>
+    </row>
+    <row r="323" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H323" s="7"/>
-      <c r="P323" s="8"/>
       <c r="Q323" s="8"/>
       <c r="R323" s="8"/>
-      <c r="S323" s="9"/>
+      <c r="S323" s="8"/>
       <c r="T323" s="9"/>
       <c r="U323" s="9"/>
       <c r="V323" s="9"/>
       <c r="W323" s="9"/>
-    </row>
-    <row r="324" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X323" s="9"/>
+    </row>
+    <row r="324" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H324" s="7"/>
-      <c r="P324" s="8"/>
       <c r="Q324" s="8"/>
       <c r="R324" s="8"/>
-      <c r="S324" s="9"/>
+      <c r="S324" s="8"/>
       <c r="T324" s="9"/>
       <c r="U324" s="9"/>
       <c r="V324" s="9"/>
       <c r="W324" s="9"/>
-    </row>
-    <row r="325" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X324" s="9"/>
+    </row>
+    <row r="325" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H325" s="7"/>
-      <c r="P325" s="8"/>
       <c r="Q325" s="8"/>
       <c r="R325" s="8"/>
-      <c r="S325" s="9"/>
+      <c r="S325" s="8"/>
       <c r="T325" s="9"/>
       <c r="U325" s="9"/>
       <c r="V325" s="9"/>
       <c r="W325" s="9"/>
-    </row>
-    <row r="326" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X325" s="9"/>
+    </row>
+    <row r="326" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H326" s="7"/>
-      <c r="P326" s="8"/>
       <c r="Q326" s="8"/>
       <c r="R326" s="8"/>
-      <c r="S326" s="9"/>
+      <c r="S326" s="8"/>
       <c r="T326" s="9"/>
       <c r="U326" s="9"/>
       <c r="V326" s="9"/>
       <c r="W326" s="9"/>
-    </row>
-    <row r="327" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X326" s="9"/>
+    </row>
+    <row r="327" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H327" s="7"/>
-      <c r="P327" s="8"/>
       <c r="Q327" s="8"/>
       <c r="R327" s="8"/>
-      <c r="S327" s="9"/>
+      <c r="S327" s="8"/>
       <c r="T327" s="9"/>
       <c r="U327" s="9"/>
       <c r="V327" s="9"/>
       <c r="W327" s="9"/>
-    </row>
-    <row r="328" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X327" s="9"/>
+    </row>
+    <row r="328" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H328" s="7"/>
-      <c r="P328" s="8"/>
       <c r="Q328" s="8"/>
       <c r="R328" s="8"/>
-      <c r="S328" s="9"/>
+      <c r="S328" s="8"/>
       <c r="T328" s="9"/>
       <c r="U328" s="9"/>
       <c r="V328" s="9"/>
       <c r="W328" s="9"/>
-    </row>
-    <row r="329" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X328" s="9"/>
+    </row>
+    <row r="329" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H329" s="7"/>
-      <c r="P329" s="8"/>
       <c r="Q329" s="8"/>
       <c r="R329" s="8"/>
-      <c r="S329" s="9"/>
+      <c r="S329" s="8"/>
       <c r="T329" s="9"/>
       <c r="U329" s="9"/>
       <c r="V329" s="9"/>
       <c r="W329" s="9"/>
-    </row>
-    <row r="330" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X329" s="9"/>
+    </row>
+    <row r="330" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H330" s="7"/>
-      <c r="P330" s="8"/>
       <c r="Q330" s="8"/>
       <c r="R330" s="8"/>
-      <c r="S330" s="9"/>
+      <c r="S330" s="8"/>
       <c r="T330" s="9"/>
       <c r="U330" s="9"/>
       <c r="V330" s="9"/>
       <c r="W330" s="9"/>
-    </row>
-    <row r="331" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X330" s="9"/>
+    </row>
+    <row r="331" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H331" s="7"/>
-      <c r="P331" s="8"/>
       <c r="Q331" s="8"/>
       <c r="R331" s="8"/>
-      <c r="S331" s="9"/>
+      <c r="S331" s="8"/>
       <c r="T331" s="9"/>
       <c r="U331" s="9"/>
       <c r="V331" s="9"/>
       <c r="W331" s="9"/>
-    </row>
-    <row r="332" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X331" s="9"/>
+    </row>
+    <row r="332" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H332" s="7"/>
-      <c r="P332" s="8"/>
       <c r="Q332" s="8"/>
       <c r="R332" s="8"/>
-      <c r="S332" s="9"/>
+      <c r="S332" s="8"/>
       <c r="T332" s="9"/>
       <c r="U332" s="9"/>
       <c r="V332" s="9"/>
       <c r="W332" s="9"/>
-    </row>
-    <row r="333" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X332" s="9"/>
+    </row>
+    <row r="333" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H333" s="7"/>
-      <c r="P333" s="8"/>
       <c r="Q333" s="8"/>
       <c r="R333" s="8"/>
-      <c r="S333" s="9"/>
+      <c r="S333" s="8"/>
       <c r="T333" s="9"/>
       <c r="U333" s="9"/>
       <c r="V333" s="9"/>
       <c r="W333" s="9"/>
-    </row>
-    <row r="334" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X333" s="9"/>
+    </row>
+    <row r="334" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H334" s="7"/>
-      <c r="P334" s="8"/>
       <c r="Q334" s="8"/>
       <c r="R334" s="8"/>
-      <c r="S334" s="9"/>
+      <c r="S334" s="8"/>
       <c r="T334" s="9"/>
       <c r="U334" s="9"/>
       <c r="V334" s="9"/>
       <c r="W334" s="9"/>
-    </row>
-    <row r="335" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X334" s="9"/>
+    </row>
+    <row r="335" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H335" s="7"/>
-      <c r="P335" s="8"/>
       <c r="Q335" s="8"/>
       <c r="R335" s="8"/>
-      <c r="S335" s="9"/>
+      <c r="S335" s="8"/>
       <c r="T335" s="9"/>
       <c r="U335" s="9"/>
       <c r="V335" s="9"/>
       <c r="W335" s="9"/>
-    </row>
-    <row r="336" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X335" s="9"/>
+    </row>
+    <row r="336" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H336" s="7"/>
-      <c r="P336" s="8"/>
       <c r="Q336" s="8"/>
       <c r="R336" s="8"/>
-      <c r="S336" s="9"/>
+      <c r="S336" s="8"/>
       <c r="T336" s="9"/>
       <c r="U336" s="9"/>
       <c r="V336" s="9"/>
       <c r="W336" s="9"/>
-    </row>
-    <row r="337" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X336" s="9"/>
+    </row>
+    <row r="337" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H337" s="7"/>
-      <c r="P337" s="8"/>
       <c r="Q337" s="8"/>
       <c r="R337" s="8"/>
-      <c r="S337" s="9"/>
+      <c r="S337" s="8"/>
       <c r="T337" s="9"/>
       <c r="U337" s="9"/>
       <c r="V337" s="9"/>
       <c r="W337" s="9"/>
-    </row>
-    <row r="338" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X337" s="9"/>
+    </row>
+    <row r="338" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H338" s="7"/>
-      <c r="P338" s="8"/>
       <c r="Q338" s="8"/>
       <c r="R338" s="8"/>
-      <c r="S338" s="9"/>
+      <c r="S338" s="8"/>
       <c r="T338" s="9"/>
       <c r="U338" s="9"/>
       <c r="V338" s="9"/>
       <c r="W338" s="9"/>
-    </row>
-    <row r="339" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X338" s="9"/>
+    </row>
+    <row r="339" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H339" s="7"/>
-      <c r="P339" s="8"/>
       <c r="Q339" s="8"/>
       <c r="R339" s="8"/>
-      <c r="S339" s="9"/>
+      <c r="S339" s="8"/>
       <c r="T339" s="9"/>
       <c r="U339" s="9"/>
       <c r="V339" s="9"/>
       <c r="W339" s="9"/>
-    </row>
-    <row r="340" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X339" s="9"/>
+    </row>
+    <row r="340" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H340" s="7"/>
-      <c r="P340" s="8"/>
       <c r="Q340" s="8"/>
       <c r="R340" s="8"/>
-      <c r="S340" s="9"/>
+      <c r="S340" s="8"/>
       <c r="T340" s="9"/>
       <c r="U340" s="9"/>
       <c r="V340" s="9"/>
       <c r="W340" s="9"/>
-    </row>
-    <row r="341" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X340" s="9"/>
+    </row>
+    <row r="341" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H341" s="7"/>
-      <c r="P341" s="8"/>
       <c r="Q341" s="8"/>
       <c r="R341" s="8"/>
-      <c r="S341" s="9"/>
+      <c r="S341" s="8"/>
       <c r="T341" s="9"/>
       <c r="U341" s="9"/>
       <c r="V341" s="9"/>
       <c r="W341" s="9"/>
-    </row>
-    <row r="342" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X341" s="9"/>
+    </row>
+    <row r="342" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H342" s="7"/>
-      <c r="P342" s="8"/>
       <c r="Q342" s="8"/>
       <c r="R342" s="8"/>
-      <c r="S342" s="9"/>
+      <c r="S342" s="8"/>
       <c r="T342" s="9"/>
       <c r="U342" s="9"/>
       <c r="V342" s="9"/>
       <c r="W342" s="9"/>
-    </row>
-    <row r="343" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X342" s="9"/>
+    </row>
+    <row r="343" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H343" s="7"/>
-      <c r="P343" s="8"/>
       <c r="Q343" s="8"/>
       <c r="R343" s="8"/>
-      <c r="S343" s="9"/>
+      <c r="S343" s="8"/>
       <c r="T343" s="9"/>
       <c r="U343" s="9"/>
       <c r="V343" s="9"/>
       <c r="W343" s="9"/>
-    </row>
-    <row r="344" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X343" s="9"/>
+    </row>
+    <row r="344" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H344" s="7"/>
-      <c r="P344" s="8"/>
       <c r="Q344" s="8"/>
       <c r="R344" s="8"/>
-      <c r="S344" s="9"/>
+      <c r="S344" s="8"/>
       <c r="T344" s="9"/>
       <c r="U344" s="9"/>
       <c r="V344" s="9"/>
       <c r="W344" s="9"/>
-    </row>
-    <row r="345" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X344" s="9"/>
+    </row>
+    <row r="345" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H345" s="7"/>
-      <c r="P345" s="8"/>
       <c r="Q345" s="8"/>
       <c r="R345" s="8"/>
-      <c r="S345" s="9"/>
+      <c r="S345" s="8"/>
       <c r="T345" s="9"/>
       <c r="U345" s="9"/>
       <c r="V345" s="9"/>
       <c r="W345" s="9"/>
-    </row>
-    <row r="346" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X345" s="9"/>
+    </row>
+    <row r="346" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H346" s="7"/>
-      <c r="P346" s="8"/>
       <c r="Q346" s="8"/>
       <c r="R346" s="8"/>
-      <c r="S346" s="9"/>
+      <c r="S346" s="8"/>
       <c r="T346" s="9"/>
       <c r="U346" s="9"/>
       <c r="V346" s="9"/>
       <c r="W346" s="9"/>
-    </row>
-    <row r="347" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X346" s="9"/>
+    </row>
+    <row r="347" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H347" s="7"/>
-      <c r="P347" s="8"/>
       <c r="Q347" s="8"/>
       <c r="R347" s="8"/>
-      <c r="S347" s="9"/>
+      <c r="S347" s="8"/>
       <c r="T347" s="9"/>
       <c r="U347" s="9"/>
       <c r="V347" s="9"/>
       <c r="W347" s="9"/>
-    </row>
-    <row r="348" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X347" s="9"/>
+    </row>
+    <row r="348" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H348" s="7"/>
-      <c r="P348" s="8"/>
       <c r="Q348" s="8"/>
       <c r="R348" s="8"/>
-      <c r="S348" s="9"/>
+      <c r="S348" s="8"/>
       <c r="T348" s="9"/>
       <c r="U348" s="9"/>
       <c r="V348" s="9"/>
       <c r="W348" s="9"/>
-    </row>
-    <row r="349" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X348" s="9"/>
+    </row>
+    <row r="349" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H349" s="7"/>
-      <c r="P349" s="8"/>
       <c r="Q349" s="8"/>
       <c r="R349" s="8"/>
-      <c r="S349" s="9"/>
+      <c r="S349" s="8"/>
       <c r="T349" s="9"/>
       <c r="U349" s="9"/>
       <c r="V349" s="9"/>
       <c r="W349" s="9"/>
-    </row>
-    <row r="350" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X349" s="9"/>
+    </row>
+    <row r="350" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H350" s="7"/>
-      <c r="P350" s="8"/>
       <c r="Q350" s="8"/>
       <c r="R350" s="8"/>
-      <c r="S350" s="9"/>
+      <c r="S350" s="8"/>
       <c r="T350" s="9"/>
       <c r="U350" s="9"/>
       <c r="V350" s="9"/>
       <c r="W350" s="9"/>
-    </row>
-    <row r="351" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X350" s="9"/>
+    </row>
+    <row r="351" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H351" s="7"/>
-      <c r="P351" s="8"/>
       <c r="Q351" s="8"/>
       <c r="R351" s="8"/>
-      <c r="S351" s="9"/>
+      <c r="S351" s="8"/>
       <c r="T351" s="9"/>
       <c r="U351" s="9"/>
       <c r="V351" s="9"/>
       <c r="W351" s="9"/>
-    </row>
-    <row r="352" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X351" s="9"/>
+    </row>
+    <row r="352" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H352" s="7"/>
-      <c r="P352" s="8"/>
       <c r="Q352" s="8"/>
       <c r="R352" s="8"/>
-      <c r="S352" s="9"/>
+      <c r="S352" s="8"/>
       <c r="T352" s="9"/>
       <c r="U352" s="9"/>
       <c r="V352" s="9"/>
       <c r="W352" s="9"/>
-    </row>
-    <row r="353" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X352" s="9"/>
+    </row>
+    <row r="353" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H353" s="7"/>
-      <c r="P353" s="8"/>
       <c r="Q353" s="8"/>
       <c r="R353" s="8"/>
-      <c r="S353" s="9"/>
+      <c r="S353" s="8"/>
       <c r="T353" s="9"/>
       <c r="U353" s="9"/>
       <c r="V353" s="9"/>
       <c r="W353" s="9"/>
-    </row>
-    <row r="354" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X353" s="9"/>
+    </row>
+    <row r="354" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H354" s="7"/>
-      <c r="P354" s="8"/>
       <c r="Q354" s="8"/>
       <c r="R354" s="8"/>
-      <c r="S354" s="9"/>
+      <c r="S354" s="8"/>
       <c r="T354" s="9"/>
       <c r="U354" s="9"/>
       <c r="V354" s="9"/>
       <c r="W354" s="9"/>
-    </row>
-    <row r="355" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X354" s="9"/>
+    </row>
+    <row r="355" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H355" s="7"/>
-      <c r="P355" s="8"/>
       <c r="Q355" s="8"/>
       <c r="R355" s="8"/>
-      <c r="S355" s="9"/>
+      <c r="S355" s="8"/>
       <c r="T355" s="9"/>
       <c r="U355" s="9"/>
       <c r="V355" s="9"/>
       <c r="W355" s="9"/>
-    </row>
-    <row r="356" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X355" s="9"/>
+    </row>
+    <row r="356" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H356" s="7"/>
-      <c r="P356" s="8"/>
       <c r="Q356" s="8"/>
       <c r="R356" s="8"/>
-      <c r="S356" s="9"/>
+      <c r="S356" s="8"/>
       <c r="T356" s="9"/>
       <c r="U356" s="9"/>
       <c r="V356" s="9"/>
       <c r="W356" s="9"/>
-    </row>
-    <row r="357" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X356" s="9"/>
+    </row>
+    <row r="357" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H357" s="7"/>
-      <c r="P357" s="8"/>
       <c r="Q357" s="8"/>
       <c r="R357" s="8"/>
-      <c r="S357" s="9"/>
+      <c r="S357" s="8"/>
       <c r="T357" s="9"/>
       <c r="U357" s="9"/>
       <c r="V357" s="9"/>
       <c r="W357" s="9"/>
-    </row>
-    <row r="358" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X357" s="9"/>
+    </row>
+    <row r="358" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H358" s="7"/>
-      <c r="P358" s="8"/>
       <c r="Q358" s="8"/>
       <c r="R358" s="8"/>
-      <c r="S358" s="9"/>
+      <c r="S358" s="8"/>
       <c r="T358" s="9"/>
       <c r="U358" s="9"/>
       <c r="V358" s="9"/>
       <c r="W358" s="9"/>
-    </row>
-    <row r="359" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X358" s="9"/>
+    </row>
+    <row r="359" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H359" s="7"/>
-      <c r="P359" s="8"/>
       <c r="Q359" s="8"/>
       <c r="R359" s="8"/>
-      <c r="S359" s="9"/>
+      <c r="S359" s="8"/>
       <c r="T359" s="9"/>
       <c r="U359" s="9"/>
       <c r="V359" s="9"/>
       <c r="W359" s="9"/>
-    </row>
-    <row r="360" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X359" s="9"/>
+    </row>
+    <row r="360" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H360" s="7"/>
-      <c r="P360" s="8"/>
       <c r="Q360" s="8"/>
       <c r="R360" s="8"/>
-      <c r="S360" s="9"/>
+      <c r="S360" s="8"/>
       <c r="T360" s="9"/>
       <c r="U360" s="9"/>
       <c r="V360" s="9"/>
       <c r="W360" s="9"/>
-    </row>
-    <row r="361" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X360" s="9"/>
+    </row>
+    <row r="361" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H361" s="7"/>
-      <c r="P361" s="8"/>
       <c r="Q361" s="8"/>
       <c r="R361" s="8"/>
-      <c r="S361" s="9"/>
+      <c r="S361" s="8"/>
       <c r="T361" s="9"/>
       <c r="U361" s="9"/>
       <c r="V361" s="9"/>
       <c r="W361" s="9"/>
-    </row>
-    <row r="362" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X361" s="9"/>
+    </row>
+    <row r="362" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H362" s="7"/>
-      <c r="P362" s="8"/>
       <c r="Q362" s="8"/>
       <c r="R362" s="8"/>
-      <c r="S362" s="9"/>
+      <c r="S362" s="8"/>
       <c r="T362" s="9"/>
       <c r="U362" s="9"/>
       <c r="V362" s="9"/>
       <c r="W362" s="9"/>
-    </row>
-    <row r="363" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X362" s="9"/>
+    </row>
+    <row r="363" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H363" s="7"/>
-      <c r="P363" s="8"/>
       <c r="Q363" s="8"/>
       <c r="R363" s="8"/>
-      <c r="S363" s="9"/>
+      <c r="S363" s="8"/>
       <c r="T363" s="9"/>
       <c r="U363" s="9"/>
       <c r="V363" s="9"/>
       <c r="W363" s="9"/>
-    </row>
-    <row r="364" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X363" s="9"/>
+    </row>
+    <row r="364" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H364" s="7"/>
-      <c r="P364" s="8"/>
       <c r="Q364" s="8"/>
       <c r="R364" s="8"/>
-      <c r="S364" s="9"/>
+      <c r="S364" s="8"/>
       <c r="T364" s="9"/>
       <c r="U364" s="9"/>
       <c r="V364" s="9"/>
       <c r="W364" s="9"/>
-    </row>
-    <row r="365" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X364" s="9"/>
+    </row>
+    <row r="365" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H365" s="7"/>
-      <c r="P365" s="8"/>
       <c r="Q365" s="8"/>
       <c r="R365" s="8"/>
-      <c r="S365" s="9"/>
+      <c r="S365" s="8"/>
       <c r="T365" s="9"/>
       <c r="U365" s="9"/>
       <c r="V365" s="9"/>
       <c r="W365" s="9"/>
-    </row>
-    <row r="366" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X365" s="9"/>
+    </row>
+    <row r="366" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H366" s="7"/>
-      <c r="P366" s="8"/>
       <c r="Q366" s="8"/>
       <c r="R366" s="8"/>
-      <c r="S366" s="9"/>
+      <c r="S366" s="8"/>
       <c r="T366" s="9"/>
       <c r="U366" s="9"/>
       <c r="V366" s="9"/>
       <c r="W366" s="9"/>
-    </row>
-    <row r="367" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X366" s="9"/>
+    </row>
+    <row r="367" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H367" s="7"/>
-      <c r="P367" s="8"/>
       <c r="Q367" s="8"/>
       <c r="R367" s="8"/>
-      <c r="S367" s="9"/>
+      <c r="S367" s="8"/>
       <c r="T367" s="9"/>
       <c r="U367" s="9"/>
       <c r="V367" s="9"/>
       <c r="W367" s="9"/>
-    </row>
-    <row r="368" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X367" s="9"/>
+    </row>
+    <row r="368" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H368" s="7"/>
-      <c r="P368" s="8"/>
       <c r="Q368" s="8"/>
       <c r="R368" s="8"/>
-      <c r="S368" s="9"/>
+      <c r="S368" s="8"/>
       <c r="T368" s="9"/>
       <c r="U368" s="9"/>
       <c r="V368" s="9"/>
       <c r="W368" s="9"/>
-    </row>
-    <row r="369" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X368" s="9"/>
+    </row>
+    <row r="369" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H369" s="7"/>
-      <c r="P369" s="8"/>
       <c r="Q369" s="8"/>
       <c r="R369" s="8"/>
-      <c r="S369" s="9"/>
+      <c r="S369" s="8"/>
       <c r="T369" s="9"/>
       <c r="U369" s="9"/>
       <c r="V369" s="9"/>
       <c r="W369" s="9"/>
-    </row>
-    <row r="370" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X369" s="9"/>
+    </row>
+    <row r="370" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H370" s="7"/>
-      <c r="P370" s="8"/>
       <c r="Q370" s="8"/>
       <c r="R370" s="8"/>
-      <c r="S370" s="9"/>
+      <c r="S370" s="8"/>
       <c r="T370" s="9"/>
       <c r="U370" s="9"/>
       <c r="V370" s="9"/>
       <c r="W370" s="9"/>
-    </row>
-    <row r="371" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X370" s="9"/>
+    </row>
+    <row r="371" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H371" s="7"/>
-      <c r="P371" s="8"/>
       <c r="Q371" s="8"/>
       <c r="R371" s="8"/>
-      <c r="S371" s="9"/>
+      <c r="S371" s="8"/>
       <c r="T371" s="9"/>
       <c r="U371" s="9"/>
       <c r="V371" s="9"/>
       <c r="W371" s="9"/>
-    </row>
-    <row r="372" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X371" s="9"/>
+    </row>
+    <row r="372" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H372" s="7"/>
-      <c r="P372" s="8"/>
       <c r="Q372" s="8"/>
       <c r="R372" s="8"/>
-      <c r="S372" s="9"/>
+      <c r="S372" s="8"/>
       <c r="T372" s="9"/>
       <c r="U372" s="9"/>
       <c r="V372" s="9"/>
       <c r="W372" s="9"/>
-    </row>
-    <row r="373" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X372" s="9"/>
+    </row>
+    <row r="373" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H373" s="7"/>
-      <c r="P373" s="8"/>
       <c r="Q373" s="8"/>
       <c r="R373" s="8"/>
-      <c r="S373" s="9"/>
+      <c r="S373" s="8"/>
       <c r="T373" s="9"/>
       <c r="U373" s="9"/>
       <c r="V373" s="9"/>
       <c r="W373" s="9"/>
-    </row>
-    <row r="374" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X373" s="9"/>
+    </row>
+    <row r="374" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H374" s="7"/>
-      <c r="P374" s="8"/>
       <c r="Q374" s="8"/>
       <c r="R374" s="8"/>
-      <c r="S374" s="9"/>
+      <c r="S374" s="8"/>
       <c r="T374" s="9"/>
       <c r="U374" s="9"/>
       <c r="V374" s="9"/>
       <c r="W374" s="9"/>
-    </row>
-    <row r="375" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X374" s="9"/>
+    </row>
+    <row r="375" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H375" s="7"/>
-      <c r="P375" s="8"/>
       <c r="Q375" s="8"/>
       <c r="R375" s="8"/>
-      <c r="S375" s="9"/>
+      <c r="S375" s="8"/>
       <c r="T375" s="9"/>
       <c r="U375" s="9"/>
       <c r="V375" s="9"/>
       <c r="W375" s="9"/>
-    </row>
-    <row r="376" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X375" s="9"/>
+    </row>
+    <row r="376" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H376" s="7"/>
-      <c r="P376" s="8"/>
       <c r="Q376" s="8"/>
       <c r="R376" s="8"/>
-      <c r="S376" s="9"/>
+      <c r="S376" s="8"/>
       <c r="T376" s="9"/>
       <c r="U376" s="9"/>
       <c r="V376" s="9"/>
       <c r="W376" s="9"/>
-    </row>
-    <row r="377" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X376" s="9"/>
+    </row>
+    <row r="377" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H377" s="7"/>
-      <c r="P377" s="8"/>
       <c r="Q377" s="8"/>
       <c r="R377" s="8"/>
-      <c r="S377" s="9"/>
+      <c r="S377" s="8"/>
       <c r="T377" s="9"/>
       <c r="U377" s="9"/>
       <c r="V377" s="9"/>
       <c r="W377" s="9"/>
-    </row>
-    <row r="378" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X377" s="9"/>
+    </row>
+    <row r="378" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H378" s="7"/>
-      <c r="P378" s="8"/>
       <c r="Q378" s="8"/>
       <c r="R378" s="8"/>
-      <c r="S378" s="9"/>
+      <c r="S378" s="8"/>
       <c r="T378" s="9"/>
       <c r="U378" s="9"/>
       <c r="V378" s="9"/>
       <c r="W378" s="9"/>
-    </row>
-    <row r="379" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X378" s="9"/>
+    </row>
+    <row r="379" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H379" s="7"/>
-      <c r="P379" s="8"/>
       <c r="Q379" s="8"/>
       <c r="R379" s="8"/>
-      <c r="S379" s="9"/>
+      <c r="S379" s="8"/>
       <c r="T379" s="9"/>
       <c r="U379" s="9"/>
       <c r="V379" s="9"/>
       <c r="W379" s="9"/>
-    </row>
-    <row r="380" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X379" s="9"/>
+    </row>
+    <row r="380" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H380" s="7"/>
-      <c r="P380" s="8"/>
       <c r="Q380" s="8"/>
       <c r="R380" s="8"/>
-      <c r="S380" s="9"/>
+      <c r="S380" s="8"/>
       <c r="T380" s="9"/>
       <c r="U380" s="9"/>
       <c r="V380" s="9"/>
       <c r="W380" s="9"/>
-    </row>
-    <row r="381" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X380" s="9"/>
+    </row>
+    <row r="381" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H381" s="7"/>
-      <c r="P381" s="8"/>
       <c r="Q381" s="8"/>
       <c r="R381" s="8"/>
-      <c r="S381" s="9"/>
+      <c r="S381" s="8"/>
       <c r="T381" s="9"/>
       <c r="U381" s="9"/>
       <c r="V381" s="9"/>
       <c r="W381" s="9"/>
-    </row>
-    <row r="382" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X381" s="9"/>
+    </row>
+    <row r="382" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H382" s="7"/>
-      <c r="P382" s="8"/>
       <c r="Q382" s="8"/>
       <c r="R382" s="8"/>
-      <c r="S382" s="9"/>
+      <c r="S382" s="8"/>
       <c r="T382" s="9"/>
       <c r="U382" s="9"/>
       <c r="V382" s="9"/>
       <c r="W382" s="9"/>
-    </row>
-    <row r="383" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X382" s="9"/>
+    </row>
+    <row r="383" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H383" s="7"/>
-      <c r="P383" s="8"/>
       <c r="Q383" s="8"/>
       <c r="R383" s="8"/>
-      <c r="S383" s="9"/>
+      <c r="S383" s="8"/>
       <c r="T383" s="9"/>
       <c r="U383" s="9"/>
       <c r="V383" s="9"/>
       <c r="W383" s="9"/>
-    </row>
-    <row r="384" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X383" s="9"/>
+    </row>
+    <row r="384" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H384" s="7"/>
-      <c r="P384" s="8"/>
       <c r="Q384" s="8"/>
       <c r="R384" s="8"/>
-      <c r="S384" s="9"/>
+      <c r="S384" s="8"/>
       <c r="T384" s="9"/>
       <c r="U384" s="9"/>
       <c r="V384" s="9"/>
       <c r="W384" s="9"/>
-    </row>
-    <row r="385" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X384" s="9"/>
+    </row>
+    <row r="385" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H385" s="7"/>
-      <c r="P385" s="8"/>
       <c r="Q385" s="8"/>
       <c r="R385" s="8"/>
-      <c r="S385" s="9"/>
+      <c r="S385" s="8"/>
       <c r="T385" s="9"/>
       <c r="U385" s="9"/>
       <c r="V385" s="9"/>
       <c r="W385" s="9"/>
-    </row>
-    <row r="386" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X385" s="9"/>
+    </row>
+    <row r="386" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H386" s="7"/>
-      <c r="P386" s="8"/>
       <c r="Q386" s="8"/>
       <c r="R386" s="8"/>
-      <c r="S386" s="9"/>
+      <c r="S386" s="8"/>
       <c r="T386" s="9"/>
       <c r="U386" s="9"/>
       <c r="V386" s="9"/>
       <c r="W386" s="9"/>
-    </row>
-    <row r="387" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X386" s="9"/>
+    </row>
+    <row r="387" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H387" s="7"/>
-      <c r="P387" s="8"/>
       <c r="Q387" s="8"/>
       <c r="R387" s="8"/>
-      <c r="S387" s="9"/>
+      <c r="S387" s="8"/>
       <c r="T387" s="9"/>
       <c r="U387" s="9"/>
       <c r="V387" s="9"/>
       <c r="W387" s="9"/>
-    </row>
-    <row r="388" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X387" s="9"/>
+    </row>
+    <row r="388" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H388" s="7"/>
-      <c r="P388" s="8"/>
       <c r="Q388" s="8"/>
       <c r="R388" s="8"/>
-      <c r="S388" s="9"/>
+      <c r="S388" s="8"/>
       <c r="T388" s="9"/>
       <c r="U388" s="9"/>
       <c r="V388" s="9"/>
       <c r="W388" s="9"/>
-    </row>
-    <row r="389" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X388" s="9"/>
+    </row>
+    <row r="389" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H389" s="7"/>
-      <c r="P389" s="8"/>
       <c r="Q389" s="8"/>
       <c r="R389" s="8"/>
-      <c r="S389" s="9"/>
+      <c r="S389" s="8"/>
       <c r="T389" s="9"/>
       <c r="U389" s="9"/>
       <c r="V389" s="9"/>
       <c r="W389" s="9"/>
-    </row>
-    <row r="390" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X389" s="9"/>
+    </row>
+    <row r="390" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H390" s="7"/>
-      <c r="P390" s="8"/>
       <c r="Q390" s="8"/>
       <c r="R390" s="8"/>
-      <c r="S390" s="9"/>
+      <c r="S390" s="8"/>
       <c r="T390" s="9"/>
       <c r="U390" s="9"/>
       <c r="V390" s="9"/>
       <c r="W390" s="9"/>
-    </row>
-    <row r="391" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X390" s="9"/>
+    </row>
+    <row r="391" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H391" s="7"/>
-      <c r="P391" s="8"/>
       <c r="Q391" s="8"/>
       <c r="R391" s="8"/>
-      <c r="S391" s="9"/>
+      <c r="S391" s="8"/>
       <c r="T391" s="9"/>
       <c r="U391" s="9"/>
       <c r="V391" s="9"/>
       <c r="W391" s="9"/>
-    </row>
-    <row r="392" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X391" s="9"/>
+    </row>
+    <row r="392" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H392" s="7"/>
-      <c r="P392" s="8"/>
       <c r="Q392" s="8"/>
       <c r="R392" s="8"/>
-      <c r="S392" s="9"/>
+      <c r="S392" s="8"/>
       <c r="T392" s="9"/>
       <c r="U392" s="9"/>
       <c r="V392" s="9"/>
       <c r="W392" s="9"/>
-    </row>
-    <row r="393" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X392" s="9"/>
+    </row>
+    <row r="393" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H393" s="7"/>
-      <c r="P393" s="8"/>
       <c r="Q393" s="8"/>
       <c r="R393" s="8"/>
-      <c r="S393" s="9"/>
+      <c r="S393" s="8"/>
       <c r="T393" s="9"/>
       <c r="U393" s="9"/>
       <c r="V393" s="9"/>
       <c r="W393" s="9"/>
-    </row>
-    <row r="394" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X393" s="9"/>
+    </row>
+    <row r="394" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H394" s="7"/>
-      <c r="P394" s="8"/>
       <c r="Q394" s="8"/>
       <c r="R394" s="8"/>
-      <c r="S394" s="9"/>
+      <c r="S394" s="8"/>
       <c r="T394" s="9"/>
       <c r="U394" s="9"/>
       <c r="V394" s="9"/>
       <c r="W394" s="9"/>
-    </row>
-    <row r="395" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X394" s="9"/>
+    </row>
+    <row r="395" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H395" s="7"/>
-      <c r="P395" s="8"/>
       <c r="Q395" s="8"/>
       <c r="R395" s="8"/>
-      <c r="S395" s="9"/>
+      <c r="S395" s="8"/>
       <c r="T395" s="9"/>
       <c r="U395" s="9"/>
       <c r="V395" s="9"/>
       <c r="W395" s="9"/>
-    </row>
-    <row r="396" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X395" s="9"/>
+    </row>
+    <row r="396" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H396" s="7"/>
-      <c r="P396" s="8"/>
       <c r="Q396" s="8"/>
       <c r="R396" s="8"/>
-      <c r="S396" s="9"/>
+      <c r="S396" s="8"/>
       <c r="T396" s="9"/>
       <c r="U396" s="9"/>
       <c r="V396" s="9"/>
       <c r="W396" s="9"/>
-    </row>
-    <row r="397" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X396" s="9"/>
+    </row>
+    <row r="397" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H397" s="7"/>
-      <c r="P397" s="8"/>
       <c r="Q397" s="8"/>
       <c r="R397" s="8"/>
-      <c r="S397" s="9"/>
+      <c r="S397" s="8"/>
       <c r="T397" s="9"/>
       <c r="U397" s="9"/>
       <c r="V397" s="9"/>
       <c r="W397" s="9"/>
-    </row>
-    <row r="398" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X397" s="9"/>
+    </row>
+    <row r="398" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H398" s="7"/>
-      <c r="P398" s="8"/>
       <c r="Q398" s="8"/>
       <c r="R398" s="8"/>
-      <c r="S398" s="9"/>
+      <c r="S398" s="8"/>
       <c r="T398" s="9"/>
       <c r="U398" s="9"/>
       <c r="V398" s="9"/>
       <c r="W398" s="9"/>
-    </row>
-    <row r="399" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X398" s="9"/>
+    </row>
+    <row r="399" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H399" s="7"/>
-      <c r="P399" s="8"/>
       <c r="Q399" s="8"/>
       <c r="R399" s="8"/>
-      <c r="S399" s="9"/>
+      <c r="S399" s="8"/>
       <c r="T399" s="9"/>
       <c r="U399" s="9"/>
       <c r="V399" s="9"/>
       <c r="W399" s="9"/>
-    </row>
-    <row r="400" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X399" s="9"/>
+    </row>
+    <row r="400" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H400" s="7"/>
-      <c r="P400" s="8"/>
       <c r="Q400" s="8"/>
       <c r="R400" s="8"/>
-      <c r="S400" s="9"/>
+      <c r="S400" s="8"/>
       <c r="T400" s="9"/>
       <c r="U400" s="9"/>
       <c r="V400" s="9"/>
       <c r="W400" s="9"/>
-    </row>
-    <row r="401" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X400" s="9"/>
+    </row>
+    <row r="401" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H401" s="7"/>
-      <c r="P401" s="8"/>
       <c r="Q401" s="8"/>
       <c r="R401" s="8"/>
-      <c r="S401" s="9"/>
+      <c r="S401" s="8"/>
       <c r="T401" s="9"/>
       <c r="U401" s="9"/>
       <c r="V401" s="9"/>
       <c r="W401" s="9"/>
-    </row>
-    <row r="402" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X401" s="9"/>
+    </row>
+    <row r="402" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H402" s="7"/>
-      <c r="P402" s="8"/>
       <c r="Q402" s="8"/>
       <c r="R402" s="8"/>
-      <c r="S402" s="9"/>
+      <c r="S402" s="8"/>
       <c r="T402" s="9"/>
       <c r="U402" s="9"/>
       <c r="V402" s="9"/>
       <c r="W402" s="9"/>
-    </row>
-    <row r="403" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X402" s="9"/>
+    </row>
+    <row r="403" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H403" s="7"/>
-      <c r="P403" s="8"/>
       <c r="Q403" s="8"/>
       <c r="R403" s="8"/>
-      <c r="S403" s="9"/>
+      <c r="S403" s="8"/>
       <c r="T403" s="9"/>
       <c r="U403" s="9"/>
       <c r="V403" s="9"/>
       <c r="W403" s="9"/>
-    </row>
-    <row r="404" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X403" s="9"/>
+    </row>
+    <row r="404" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H404" s="7"/>
-      <c r="P404" s="8"/>
       <c r="Q404" s="8"/>
       <c r="R404" s="8"/>
-      <c r="S404" s="9"/>
+      <c r="S404" s="8"/>
       <c r="T404" s="9"/>
       <c r="U404" s="9"/>
       <c r="V404" s="9"/>
       <c r="W404" s="9"/>
-    </row>
-    <row r="405" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X404" s="9"/>
+    </row>
+    <row r="405" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H405" s="7"/>
-      <c r="P405" s="8"/>
       <c r="Q405" s="8"/>
       <c r="R405" s="8"/>
-      <c r="S405" s="9"/>
+      <c r="S405" s="8"/>
       <c r="T405" s="9"/>
       <c r="U405" s="9"/>
       <c r="V405" s="9"/>
       <c r="W405" s="9"/>
-    </row>
-    <row r="406" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X405" s="9"/>
+    </row>
+    <row r="406" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H406" s="7"/>
-      <c r="P406" s="8"/>
       <c r="Q406" s="8"/>
       <c r="R406" s="8"/>
-      <c r="S406" s="9"/>
+      <c r="S406" s="8"/>
       <c r="T406" s="9"/>
       <c r="U406" s="9"/>
       <c r="V406" s="9"/>
       <c r="W406" s="9"/>
-    </row>
-    <row r="407" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X406" s="9"/>
+    </row>
+    <row r="407" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H407" s="7"/>
-      <c r="P407" s="8"/>
       <c r="Q407" s="8"/>
       <c r="R407" s="8"/>
-      <c r="S407" s="9"/>
+      <c r="S407" s="8"/>
       <c r="T407" s="9"/>
       <c r="U407" s="9"/>
       <c r="V407" s="9"/>
       <c r="W407" s="9"/>
-    </row>
-    <row r="408" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X407" s="9"/>
+    </row>
+    <row r="408" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H408" s="7"/>
-      <c r="P408" s="8"/>
       <c r="Q408" s="8"/>
       <c r="R408" s="8"/>
-      <c r="S408" s="9"/>
+      <c r="S408" s="8"/>
       <c r="T408" s="9"/>
       <c r="U408" s="9"/>
       <c r="V408" s="9"/>
       <c r="W408" s="9"/>
-    </row>
-    <row r="409" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X408" s="9"/>
+    </row>
+    <row r="409" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H409" s="7"/>
-      <c r="P409" s="8"/>
       <c r="Q409" s="8"/>
       <c r="R409" s="8"/>
-      <c r="S409" s="9"/>
+      <c r="S409" s="8"/>
       <c r="T409" s="9"/>
       <c r="U409" s="9"/>
       <c r="V409" s="9"/>
       <c r="W409" s="9"/>
-    </row>
-    <row r="410" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X409" s="9"/>
+    </row>
+    <row r="410" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H410" s="7"/>
-      <c r="P410" s="8"/>
       <c r="Q410" s="8"/>
       <c r="R410" s="8"/>
-      <c r="S410" s="9"/>
+      <c r="S410" s="8"/>
       <c r="T410" s="9"/>
       <c r="U410" s="9"/>
       <c r="V410" s="9"/>
       <c r="W410" s="9"/>
-    </row>
-    <row r="411" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X410" s="9"/>
+    </row>
+    <row r="411" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H411" s="7"/>
-      <c r="P411" s="8"/>
       <c r="Q411" s="8"/>
       <c r="R411" s="8"/>
-      <c r="S411" s="9"/>
+      <c r="S411" s="8"/>
       <c r="T411" s="9"/>
       <c r="U411" s="9"/>
       <c r="V411" s="9"/>
       <c r="W411" s="9"/>
-    </row>
-    <row r="412" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X411" s="9"/>
+    </row>
+    <row r="412" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H412" s="7"/>
-      <c r="P412" s="8"/>
       <c r="Q412" s="8"/>
       <c r="R412" s="8"/>
-      <c r="S412" s="9"/>
+      <c r="S412" s="8"/>
       <c r="T412" s="9"/>
       <c r="U412" s="9"/>
       <c r="V412" s="9"/>
       <c r="W412" s="9"/>
-    </row>
-    <row r="413" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X412" s="9"/>
+    </row>
+    <row r="413" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H413" s="7"/>
-      <c r="P413" s="8"/>
       <c r="Q413" s="8"/>
       <c r="R413" s="8"/>
-      <c r="S413" s="9"/>
+      <c r="S413" s="8"/>
       <c r="T413" s="9"/>
       <c r="U413" s="9"/>
       <c r="V413" s="9"/>
       <c r="W413" s="9"/>
-    </row>
-    <row r="414" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X413" s="9"/>
+    </row>
+    <row r="414" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H414" s="7"/>
-      <c r="P414" s="8"/>
       <c r="Q414" s="8"/>
       <c r="R414" s="8"/>
-      <c r="S414" s="9"/>
+      <c r="S414" s="8"/>
       <c r="T414" s="9"/>
       <c r="U414" s="9"/>
       <c r="V414" s="9"/>
       <c r="W414" s="9"/>
-    </row>
-    <row r="415" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X414" s="9"/>
+    </row>
+    <row r="415" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H415" s="7"/>
-      <c r="P415" s="8"/>
       <c r="Q415" s="8"/>
       <c r="R415" s="8"/>
-      <c r="S415" s="9"/>
+      <c r="S415" s="8"/>
       <c r="T415" s="9"/>
       <c r="U415" s="9"/>
       <c r="V415" s="9"/>
       <c r="W415" s="9"/>
-    </row>
-    <row r="416" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X415" s="9"/>
+    </row>
+    <row r="416" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H416" s="7"/>
-      <c r="P416" s="8"/>
       <c r="Q416" s="8"/>
       <c r="R416" s="8"/>
-      <c r="S416" s="9"/>
+      <c r="S416" s="8"/>
       <c r="T416" s="9"/>
       <c r="U416" s="9"/>
       <c r="V416" s="9"/>
       <c r="W416" s="9"/>
-    </row>
-    <row r="417" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X416" s="9"/>
+    </row>
+    <row r="417" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H417" s="7"/>
-      <c r="P417" s="8"/>
       <c r="Q417" s="8"/>
       <c r="R417" s="8"/>
-      <c r="S417" s="9"/>
+      <c r="S417" s="8"/>
       <c r="T417" s="9"/>
       <c r="U417" s="9"/>
       <c r="V417" s="9"/>
       <c r="W417" s="9"/>
-    </row>
-    <row r="418" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X417" s="9"/>
+    </row>
+    <row r="418" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H418" s="7"/>
-      <c r="P418" s="8"/>
       <c r="Q418" s="8"/>
       <c r="R418" s="8"/>
-      <c r="S418" s="9"/>
+      <c r="S418" s="8"/>
       <c r="T418" s="9"/>
       <c r="U418" s="9"/>
       <c r="V418" s="9"/>
       <c r="W418" s="9"/>
-    </row>
-    <row r="419" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X418" s="9"/>
+    </row>
+    <row r="419" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H419" s="7"/>
-      <c r="P419" s="8"/>
       <c r="Q419" s="8"/>
       <c r="R419" s="8"/>
-      <c r="S419" s="9"/>
+      <c r="S419" s="8"/>
       <c r="T419" s="9"/>
       <c r="U419" s="9"/>
       <c r="V419" s="9"/>
       <c r="W419" s="9"/>
-    </row>
-    <row r="420" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X419" s="9"/>
+    </row>
+    <row r="420" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H420" s="7"/>
-      <c r="P420" s="8"/>
       <c r="Q420" s="8"/>
       <c r="R420" s="8"/>
-      <c r="S420" s="9"/>
+      <c r="S420" s="8"/>
       <c r="T420" s="9"/>
       <c r="U420" s="9"/>
       <c r="V420" s="9"/>
       <c r="W420" s="9"/>
-    </row>
-    <row r="421" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X420" s="9"/>
+    </row>
+    <row r="421" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H421" s="7"/>
-      <c r="P421" s="8"/>
       <c r="Q421" s="8"/>
       <c r="R421" s="8"/>
-      <c r="S421" s="9"/>
+      <c r="S421" s="8"/>
       <c r="T421" s="9"/>
       <c r="U421" s="9"/>
       <c r="V421" s="9"/>
       <c r="W421" s="9"/>
-    </row>
-    <row r="422" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X421" s="9"/>
+    </row>
+    <row r="422" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H422" s="7"/>
-      <c r="P422" s="8"/>
       <c r="Q422" s="8"/>
       <c r="R422" s="8"/>
-      <c r="S422" s="9"/>
+      <c r="S422" s="8"/>
       <c r="T422" s="9"/>
       <c r="U422" s="9"/>
       <c r="V422" s="9"/>
       <c r="W422" s="9"/>
-    </row>
-    <row r="423" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X422" s="9"/>
+    </row>
+    <row r="423" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H423" s="7"/>
-      <c r="P423" s="8"/>
       <c r="Q423" s="8"/>
       <c r="R423" s="8"/>
-      <c r="S423" s="9"/>
+      <c r="S423" s="8"/>
       <c r="T423" s="9"/>
       <c r="U423" s="9"/>
       <c r="V423" s="9"/>
       <c r="W423" s="9"/>
-    </row>
-    <row r="424" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X423" s="9"/>
+    </row>
+    <row r="424" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H424" s="7"/>
-      <c r="P424" s="8"/>
       <c r="Q424" s="8"/>
       <c r="R424" s="8"/>
-      <c r="S424" s="9"/>
+      <c r="S424" s="8"/>
       <c r="T424" s="9"/>
       <c r="U424" s="9"/>
       <c r="V424" s="9"/>
       <c r="W424" s="9"/>
-    </row>
-    <row r="425" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X424" s="9"/>
+    </row>
+    <row r="425" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H425" s="7"/>
-      <c r="P425" s="8"/>
       <c r="Q425" s="8"/>
       <c r="R425" s="8"/>
-      <c r="S425" s="9"/>
+      <c r="S425" s="8"/>
       <c r="T425" s="9"/>
       <c r="U425" s="9"/>
       <c r="V425" s="9"/>
       <c r="W425" s="9"/>
-    </row>
-    <row r="426" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X425" s="9"/>
+    </row>
+    <row r="426" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H426" s="7"/>
-      <c r="P426" s="8"/>
       <c r="Q426" s="8"/>
       <c r="R426" s="8"/>
-      <c r="S426" s="9"/>
+      <c r="S426" s="8"/>
       <c r="T426" s="9"/>
       <c r="U426" s="9"/>
       <c r="V426" s="9"/>
       <c r="W426" s="9"/>
-    </row>
-    <row r="427" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X426" s="9"/>
+    </row>
+    <row r="427" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H427" s="7"/>
-      <c r="P427" s="8"/>
       <c r="Q427" s="8"/>
       <c r="R427" s="8"/>
-      <c r="S427" s="9"/>
+      <c r="S427" s="8"/>
       <c r="T427" s="9"/>
       <c r="U427" s="9"/>
       <c r="V427" s="9"/>
       <c r="W427" s="9"/>
-    </row>
-    <row r="428" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X427" s="9"/>
+    </row>
+    <row r="428" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H428" s="7"/>
-      <c r="P428" s="8"/>
       <c r="Q428" s="8"/>
       <c r="R428" s="8"/>
-      <c r="S428" s="9"/>
+      <c r="S428" s="8"/>
       <c r="T428" s="9"/>
       <c r="U428" s="9"/>
       <c r="V428" s="9"/>
       <c r="W428" s="9"/>
-    </row>
-    <row r="429" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X428" s="9"/>
+    </row>
+    <row r="429" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H429" s="7"/>
-      <c r="P429" s="8"/>
       <c r="Q429" s="8"/>
       <c r="R429" s="8"/>
-      <c r="S429" s="9"/>
+      <c r="S429" s="8"/>
       <c r="T429" s="9"/>
       <c r="U429" s="9"/>
       <c r="V429" s="9"/>
       <c r="W429" s="9"/>
-    </row>
-    <row r="430" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X429" s="9"/>
+    </row>
+    <row r="430" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H430" s="7"/>
-      <c r="P430" s="8"/>
       <c r="Q430" s="8"/>
       <c r="R430" s="8"/>
-      <c r="S430" s="9"/>
+      <c r="S430" s="8"/>
       <c r="T430" s="9"/>
       <c r="U430" s="9"/>
       <c r="V430" s="9"/>
       <c r="W430" s="9"/>
-    </row>
-    <row r="431" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X430" s="9"/>
+    </row>
+    <row r="431" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H431" s="7"/>
-      <c r="P431" s="8"/>
       <c r="Q431" s="8"/>
       <c r="R431" s="8"/>
-      <c r="S431" s="9"/>
+      <c r="S431" s="8"/>
       <c r="T431" s="9"/>
       <c r="U431" s="9"/>
       <c r="V431" s="9"/>
       <c r="W431" s="9"/>
-    </row>
-    <row r="432" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X431" s="9"/>
+    </row>
+    <row r="432" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H432" s="7"/>
-      <c r="P432" s="8"/>
       <c r="Q432" s="8"/>
       <c r="R432" s="8"/>
-      <c r="S432" s="9"/>
+      <c r="S432" s="8"/>
       <c r="T432" s="9"/>
       <c r="U432" s="9"/>
       <c r="V432" s="9"/>
       <c r="W432" s="9"/>
-    </row>
-    <row r="433" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X432" s="9"/>
+    </row>
+    <row r="433" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H433" s="7"/>
-      <c r="P433" s="8"/>
       <c r="Q433" s="8"/>
       <c r="R433" s="8"/>
-      <c r="S433" s="9"/>
+      <c r="S433" s="8"/>
       <c r="T433" s="9"/>
       <c r="U433" s="9"/>
       <c r="V433" s="9"/>
       <c r="W433" s="9"/>
-    </row>
-    <row r="434" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X433" s="9"/>
+    </row>
+    <row r="434" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H434" s="7"/>
-      <c r="P434" s="8"/>
       <c r="Q434" s="8"/>
       <c r="R434" s="8"/>
-      <c r="S434" s="9"/>
+      <c r="S434" s="8"/>
       <c r="T434" s="9"/>
       <c r="U434" s="9"/>
       <c r="V434" s="9"/>
       <c r="W434" s="9"/>
-    </row>
-    <row r="435" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X434" s="9"/>
+    </row>
+    <row r="435" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H435" s="7"/>
-      <c r="P435" s="8"/>
       <c r="Q435" s="8"/>
       <c r="R435" s="8"/>
-      <c r="S435" s="9"/>
+      <c r="S435" s="8"/>
       <c r="T435" s="9"/>
       <c r="U435" s="9"/>
       <c r="V435" s="9"/>
       <c r="W435" s="9"/>
-    </row>
-    <row r="436" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X435" s="9"/>
+    </row>
+    <row r="436" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H436" s="7"/>
-      <c r="P436" s="8"/>
       <c r="Q436" s="8"/>
       <c r="R436" s="8"/>
-      <c r="S436" s="9"/>
+      <c r="S436" s="8"/>
       <c r="T436" s="9"/>
       <c r="U436" s="9"/>
       <c r="V436" s="9"/>
       <c r="W436" s="9"/>
-    </row>
-    <row r="437" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X436" s="9"/>
+    </row>
+    <row r="437" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H437" s="7"/>
-      <c r="P437" s="8"/>
       <c r="Q437" s="8"/>
       <c r="R437" s="8"/>
-      <c r="S437" s="9"/>
+      <c r="S437" s="8"/>
       <c r="T437" s="9"/>
       <c r="U437" s="9"/>
       <c r="V437" s="9"/>
       <c r="W437" s="9"/>
-    </row>
-    <row r="438" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X437" s="9"/>
+    </row>
+    <row r="438" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H438" s="7"/>
-      <c r="P438" s="8"/>
       <c r="Q438" s="8"/>
       <c r="R438" s="8"/>
-      <c r="S438" s="9"/>
+      <c r="S438" s="8"/>
       <c r="T438" s="9"/>
       <c r="U438" s="9"/>
       <c r="V438" s="9"/>
       <c r="W438" s="9"/>
-    </row>
-    <row r="439" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X438" s="9"/>
+    </row>
+    <row r="439" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H439" s="7"/>
-      <c r="P439" s="8"/>
       <c r="Q439" s="8"/>
       <c r="R439" s="8"/>
-      <c r="S439" s="9"/>
+      <c r="S439" s="8"/>
       <c r="T439" s="9"/>
       <c r="U439" s="9"/>
       <c r="V439" s="9"/>
       <c r="W439" s="9"/>
-    </row>
-    <row r="440" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X439" s="9"/>
+    </row>
+    <row r="440" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H440" s="7"/>
-      <c r="P440" s="8"/>
       <c r="Q440" s="8"/>
       <c r="R440" s="8"/>
-      <c r="S440" s="9"/>
+      <c r="S440" s="8"/>
       <c r="T440" s="9"/>
       <c r="U440" s="9"/>
       <c r="V440" s="9"/>
       <c r="W440" s="9"/>
-    </row>
-    <row r="441" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X440" s="9"/>
+    </row>
+    <row r="441" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H441" s="7"/>
-      <c r="P441" s="8"/>
       <c r="Q441" s="8"/>
       <c r="R441" s="8"/>
-      <c r="S441" s="9"/>
+      <c r="S441" s="8"/>
       <c r="T441" s="9"/>
       <c r="U441" s="9"/>
       <c r="V441" s="9"/>
       <c r="W441" s="9"/>
-    </row>
-    <row r="442" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X441" s="9"/>
+    </row>
+    <row r="442" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H442" s="7"/>
-      <c r="P442" s="8"/>
       <c r="Q442" s="8"/>
       <c r="R442" s="8"/>
-      <c r="S442" s="9"/>
+      <c r="S442" s="8"/>
       <c r="T442" s="9"/>
       <c r="U442" s="9"/>
       <c r="V442" s="9"/>
       <c r="W442" s="9"/>
-    </row>
-    <row r="443" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X442" s="9"/>
+    </row>
+    <row r="443" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H443" s="7"/>
-      <c r="P443" s="8"/>
       <c r="Q443" s="8"/>
       <c r="R443" s="8"/>
-      <c r="S443" s="9"/>
+      <c r="S443" s="8"/>
       <c r="T443" s="9"/>
       <c r="U443" s="9"/>
       <c r="V443" s="9"/>
       <c r="W443" s="9"/>
-    </row>
-    <row r="444" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X443" s="9"/>
+    </row>
+    <row r="444" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H444" s="7"/>
-      <c r="P444" s="8"/>
       <c r="Q444" s="8"/>
       <c r="R444" s="8"/>
-      <c r="S444" s="9"/>
+      <c r="S444" s="8"/>
       <c r="T444" s="9"/>
       <c r="U444" s="9"/>
       <c r="V444" s="9"/>
       <c r="W444" s="9"/>
-    </row>
-    <row r="445" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X444" s="9"/>
+    </row>
+    <row r="445" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H445" s="7"/>
-      <c r="P445" s="8"/>
       <c r="Q445" s="8"/>
       <c r="R445" s="8"/>
-      <c r="S445" s="9"/>
+      <c r="S445" s="8"/>
       <c r="T445" s="9"/>
       <c r="U445" s="9"/>
       <c r="V445" s="9"/>
       <c r="W445" s="9"/>
-    </row>
-    <row r="446" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X445" s="9"/>
+    </row>
+    <row r="446" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H446" s="7"/>
-      <c r="P446" s="8"/>
       <c r="Q446" s="8"/>
       <c r="R446" s="8"/>
-      <c r="S446" s="9"/>
+      <c r="S446" s="8"/>
       <c r="T446" s="9"/>
       <c r="U446" s="9"/>
       <c r="V446" s="9"/>
       <c r="W446" s="9"/>
-    </row>
-    <row r="447" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X446" s="9"/>
+    </row>
+    <row r="447" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H447" s="7"/>
-      <c r="P447" s="8"/>
       <c r="Q447" s="8"/>
       <c r="R447" s="8"/>
-      <c r="S447" s="9"/>
+      <c r="S447" s="8"/>
       <c r="T447" s="9"/>
       <c r="U447" s="9"/>
       <c r="V447" s="9"/>
       <c r="W447" s="9"/>
-    </row>
-    <row r="448" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X447" s="9"/>
+    </row>
+    <row r="448" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H448" s="7"/>
-      <c r="P448" s="8"/>
       <c r="Q448" s="8"/>
       <c r="R448" s="8"/>
-      <c r="S448" s="9"/>
+      <c r="S448" s="8"/>
       <c r="T448" s="9"/>
       <c r="U448" s="9"/>
       <c r="V448" s="9"/>
       <c r="W448" s="9"/>
-    </row>
-    <row r="449" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X448" s="9"/>
+    </row>
+    <row r="449" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H449" s="7"/>
-      <c r="P449" s="8"/>
       <c r="Q449" s="8"/>
       <c r="R449" s="8"/>
-      <c r="S449" s="9"/>
+      <c r="S449" s="8"/>
       <c r="T449" s="9"/>
       <c r="U449" s="9"/>
       <c r="V449" s="9"/>
       <c r="W449" s="9"/>
-    </row>
-    <row r="450" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X449" s="9"/>
+    </row>
+    <row r="450" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H450" s="7"/>
-      <c r="P450" s="8"/>
       <c r="Q450" s="8"/>
       <c r="R450" s="8"/>
-      <c r="S450" s="9"/>
+      <c r="S450" s="8"/>
       <c r="T450" s="9"/>
       <c r="U450" s="9"/>
       <c r="V450" s="9"/>
       <c r="W450" s="9"/>
-    </row>
-    <row r="451" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X450" s="9"/>
+    </row>
+    <row r="451" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H451" s="7"/>
-      <c r="P451" s="8"/>
       <c r="Q451" s="8"/>
       <c r="R451" s="8"/>
-      <c r="S451" s="9"/>
+      <c r="S451" s="8"/>
       <c r="T451" s="9"/>
       <c r="U451" s="9"/>
       <c r="V451" s="9"/>
       <c r="W451" s="9"/>
-    </row>
-    <row r="452" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X451" s="9"/>
+    </row>
+    <row r="452" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H452" s="7"/>
-      <c r="P452" s="8"/>
       <c r="Q452" s="8"/>
       <c r="R452" s="8"/>
-      <c r="S452" s="9"/>
+      <c r="S452" s="8"/>
       <c r="T452" s="9"/>
       <c r="U452" s="9"/>
       <c r="V452" s="9"/>
       <c r="W452" s="9"/>
-    </row>
-    <row r="453" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X452" s="9"/>
+    </row>
+    <row r="453" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H453" s="7"/>
-      <c r="P453" s="8"/>
       <c r="Q453" s="8"/>
       <c r="R453" s="8"/>
-      <c r="S453" s="9"/>
+      <c r="S453" s="8"/>
       <c r="T453" s="9"/>
       <c r="U453" s="9"/>
       <c r="V453" s="9"/>
       <c r="W453" s="9"/>
-    </row>
-    <row r="454" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X453" s="9"/>
+    </row>
+    <row r="454" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H454" s="7"/>
-      <c r="P454" s="8"/>
       <c r="Q454" s="8"/>
       <c r="R454" s="8"/>
-      <c r="S454" s="9"/>
+      <c r="S454" s="8"/>
       <c r="T454" s="9"/>
       <c r="U454" s="9"/>
       <c r="V454" s="9"/>
       <c r="W454" s="9"/>
-    </row>
-    <row r="455" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X454" s="9"/>
+    </row>
+    <row r="455" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H455" s="7"/>
-      <c r="P455" s="8"/>
       <c r="Q455" s="8"/>
       <c r="R455" s="8"/>
-      <c r="S455" s="9"/>
+      <c r="S455" s="8"/>
       <c r="T455" s="9"/>
       <c r="U455" s="9"/>
       <c r="V455" s="9"/>
       <c r="W455" s="9"/>
-    </row>
-    <row r="456" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X455" s="9"/>
+    </row>
+    <row r="456" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H456" s="7"/>
-      <c r="P456" s="8"/>
       <c r="Q456" s="8"/>
       <c r="R456" s="8"/>
-      <c r="S456" s="9"/>
+      <c r="S456" s="8"/>
       <c r="T456" s="9"/>
       <c r="U456" s="9"/>
       <c r="V456" s="9"/>
       <c r="W456" s="9"/>
-    </row>
-    <row r="457" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X456" s="9"/>
+    </row>
+    <row r="457" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H457" s="7"/>
-      <c r="P457" s="8"/>
       <c r="Q457" s="8"/>
       <c r="R457" s="8"/>
-      <c r="S457" s="9"/>
+      <c r="S457" s="8"/>
       <c r="T457" s="9"/>
       <c r="U457" s="9"/>
       <c r="V457" s="9"/>
       <c r="W457" s="9"/>
-    </row>
-    <row r="458" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X457" s="9"/>
+    </row>
+    <row r="458" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H458" s="7"/>
-      <c r="P458" s="8"/>
       <c r="Q458" s="8"/>
       <c r="R458" s="8"/>
-      <c r="S458" s="9"/>
+      <c r="S458" s="8"/>
       <c r="T458" s="9"/>
       <c r="U458" s="9"/>
       <c r="V458" s="9"/>
       <c r="W458" s="9"/>
-    </row>
-    <row r="459" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X458" s="9"/>
+    </row>
+    <row r="459" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H459" s="7"/>
-      <c r="P459" s="8"/>
       <c r="Q459" s="8"/>
       <c r="R459" s="8"/>
-      <c r="S459" s="9"/>
+      <c r="S459" s="8"/>
       <c r="T459" s="9"/>
       <c r="U459" s="9"/>
       <c r="V459" s="9"/>
       <c r="W459" s="9"/>
-    </row>
-    <row r="460" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X459" s="9"/>
+    </row>
+    <row r="460" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H460" s="7"/>
-      <c r="P460" s="8"/>
       <c r="Q460" s="8"/>
       <c r="R460" s="8"/>
-      <c r="S460" s="9"/>
+      <c r="S460" s="8"/>
       <c r="T460" s="9"/>
       <c r="U460" s="9"/>
       <c r="V460" s="9"/>
       <c r="W460" s="9"/>
-    </row>
-    <row r="461" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X460" s="9"/>
+    </row>
+    <row r="461" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H461" s="7"/>
-      <c r="P461" s="8"/>
       <c r="Q461" s="8"/>
       <c r="R461" s="8"/>
-      <c r="S461" s="9"/>
+      <c r="S461" s="8"/>
       <c r="T461" s="9"/>
       <c r="U461" s="9"/>
       <c r="V461" s="9"/>
       <c r="W461" s="9"/>
-    </row>
-    <row r="462" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X461" s="9"/>
+    </row>
+    <row r="462" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H462" s="7"/>
-      <c r="P462" s="8"/>
       <c r="Q462" s="8"/>
       <c r="R462" s="8"/>
-      <c r="S462" s="9"/>
+      <c r="S462" s="8"/>
       <c r="T462" s="9"/>
       <c r="U462" s="9"/>
       <c r="V462" s="9"/>
       <c r="W462" s="9"/>
-    </row>
-    <row r="463" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X462" s="9"/>
+    </row>
+    <row r="463" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H463" s="7"/>
-      <c r="P463" s="8"/>
       <c r="Q463" s="8"/>
       <c r="R463" s="8"/>
-      <c r="S463" s="9"/>
+      <c r="S463" s="8"/>
       <c r="T463" s="9"/>
       <c r="U463" s="9"/>
       <c r="V463" s="9"/>
       <c r="W463" s="9"/>
-    </row>
-    <row r="464" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X463" s="9"/>
+    </row>
+    <row r="464" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H464" s="7"/>
-      <c r="P464" s="8"/>
       <c r="Q464" s="8"/>
       <c r="R464" s="8"/>
-      <c r="S464" s="9"/>
+      <c r="S464" s="8"/>
       <c r="T464" s="9"/>
       <c r="U464" s="9"/>
       <c r="V464" s="9"/>
       <c r="W464" s="9"/>
-    </row>
-    <row r="465" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X464" s="9"/>
+    </row>
+    <row r="465" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H465" s="7"/>
-      <c r="P465" s="8"/>
       <c r="Q465" s="8"/>
       <c r="R465" s="8"/>
-      <c r="S465" s="9"/>
+      <c r="S465" s="8"/>
       <c r="T465" s="9"/>
       <c r="U465" s="9"/>
       <c r="V465" s="9"/>
       <c r="W465" s="9"/>
-    </row>
-    <row r="466" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X465" s="9"/>
+    </row>
+    <row r="466" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H466" s="7"/>
-      <c r="P466" s="8"/>
       <c r="Q466" s="8"/>
       <c r="R466" s="8"/>
-      <c r="S466" s="9"/>
+      <c r="S466" s="8"/>
       <c r="T466" s="9"/>
       <c r="U466" s="9"/>
       <c r="V466" s="9"/>
       <c r="W466" s="9"/>
-    </row>
-    <row r="467" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X466" s="9"/>
+    </row>
+    <row r="467" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H467" s="7"/>
-      <c r="P467" s="8"/>
       <c r="Q467" s="8"/>
       <c r="R467" s="8"/>
-      <c r="S467" s="9"/>
+      <c r="S467" s="8"/>
       <c r="T467" s="9"/>
       <c r="U467" s="9"/>
       <c r="V467" s="9"/>
       <c r="W467" s="9"/>
-    </row>
-    <row r="468" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X467" s="9"/>
+    </row>
+    <row r="468" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H468" s="7"/>
-      <c r="P468" s="8"/>
       <c r="Q468" s="8"/>
       <c r="R468" s="8"/>
-      <c r="S468" s="9"/>
+      <c r="S468" s="8"/>
       <c r="T468" s="9"/>
       <c r="U468" s="9"/>
       <c r="V468" s="9"/>
       <c r="W468" s="9"/>
-    </row>
-    <row r="469" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X468" s="9"/>
+    </row>
+    <row r="469" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H469" s="7"/>
-      <c r="P469" s="8"/>
       <c r="Q469" s="8"/>
       <c r="R469" s="8"/>
-      <c r="S469" s="9"/>
+      <c r="S469" s="8"/>
       <c r="T469" s="9"/>
       <c r="U469" s="9"/>
       <c r="V469" s="9"/>
       <c r="W469" s="9"/>
-    </row>
-    <row r="470" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X469" s="9"/>
+    </row>
+    <row r="470" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H470" s="7"/>
-      <c r="P470" s="8"/>
       <c r="Q470" s="8"/>
       <c r="R470" s="8"/>
-      <c r="S470" s="9"/>
+      <c r="S470" s="8"/>
       <c r="T470" s="9"/>
       <c r="U470" s="9"/>
       <c r="V470" s="9"/>
       <c r="W470" s="9"/>
-    </row>
-    <row r="471" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X470" s="9"/>
+    </row>
+    <row r="471" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H471" s="7"/>
-      <c r="P471" s="8"/>
       <c r="Q471" s="8"/>
       <c r="R471" s="8"/>
-      <c r="S471" s="9"/>
+      <c r="S471" s="8"/>
       <c r="T471" s="9"/>
       <c r="U471" s="9"/>
       <c r="V471" s="9"/>
       <c r="W471" s="9"/>
-    </row>
-    <row r="472" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X471" s="9"/>
+    </row>
+    <row r="472" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H472" s="7"/>
-      <c r="P472" s="8"/>
       <c r="Q472" s="8"/>
       <c r="R472" s="8"/>
-      <c r="S472" s="9"/>
+      <c r="S472" s="8"/>
       <c r="T472" s="9"/>
       <c r="U472" s="9"/>
       <c r="V472" s="9"/>
       <c r="W472" s="9"/>
-    </row>
-    <row r="473" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X472" s="9"/>
+    </row>
+    <row r="473" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H473" s="7"/>
-      <c r="P473" s="8"/>
       <c r="Q473" s="8"/>
       <c r="R473" s="8"/>
-      <c r="S473" s="9"/>
+      <c r="S473" s="8"/>
       <c r="T473" s="9"/>
       <c r="U473" s="9"/>
       <c r="V473" s="9"/>
       <c r="W473" s="9"/>
-    </row>
-    <row r="474" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X473" s="9"/>
+    </row>
+    <row r="474" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H474" s="7"/>
-      <c r="P474" s="8"/>
       <c r="Q474" s="8"/>
       <c r="R474" s="8"/>
-      <c r="S474" s="9"/>
+      <c r="S474" s="8"/>
       <c r="T474" s="9"/>
       <c r="U474" s="9"/>
       <c r="V474" s="9"/>
       <c r="W474" s="9"/>
-    </row>
-    <row r="475" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X474" s="9"/>
+    </row>
+    <row r="475" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H475" s="7"/>
-      <c r="P475" s="8"/>
       <c r="Q475" s="8"/>
       <c r="R475" s="8"/>
-      <c r="S475" s="9"/>
+      <c r="S475" s="8"/>
       <c r="T475" s="9"/>
       <c r="U475" s="9"/>
       <c r="V475" s="9"/>
       <c r="W475" s="9"/>
-    </row>
-    <row r="476" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X475" s="9"/>
+    </row>
+    <row r="476" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H476" s="7"/>
-      <c r="P476" s="8"/>
       <c r="Q476" s="8"/>
       <c r="R476" s="8"/>
-      <c r="S476" s="9"/>
+      <c r="S476" s="8"/>
       <c r="T476" s="9"/>
       <c r="U476" s="9"/>
       <c r="V476" s="9"/>
       <c r="W476" s="9"/>
-    </row>
-    <row r="477" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X476" s="9"/>
+    </row>
+    <row r="477" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H477" s="7"/>
-      <c r="P477" s="8"/>
       <c r="Q477" s="8"/>
       <c r="R477" s="8"/>
-      <c r="S477" s="9"/>
+      <c r="S477" s="8"/>
       <c r="T477" s="9"/>
       <c r="U477" s="9"/>
       <c r="V477" s="9"/>
       <c r="W477" s="9"/>
-    </row>
-    <row r="478" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X477" s="9"/>
+    </row>
+    <row r="478" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H478" s="7"/>
-      <c r="P478" s="8"/>
       <c r="Q478" s="8"/>
       <c r="R478" s="8"/>
-      <c r="S478" s="9"/>
+      <c r="S478" s="8"/>
       <c r="T478" s="9"/>
       <c r="U478" s="9"/>
       <c r="V478" s="9"/>
       <c r="W478" s="9"/>
-    </row>
-    <row r="479" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X478" s="9"/>
+    </row>
+    <row r="479" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H479" s="7"/>
-      <c r="P479" s="8"/>
       <c r="Q479" s="8"/>
       <c r="R479" s="8"/>
-      <c r="S479" s="9"/>
+      <c r="S479" s="8"/>
       <c r="T479" s="9"/>
       <c r="U479" s="9"/>
       <c r="V479" s="9"/>
       <c r="W479" s="9"/>
-    </row>
-    <row r="480" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X479" s="9"/>
+    </row>
+    <row r="480" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H480" s="7"/>
-      <c r="P480" s="8"/>
       <c r="Q480" s="8"/>
       <c r="R480" s="8"/>
-      <c r="S480" s="9"/>
+      <c r="S480" s="8"/>
       <c r="T480" s="9"/>
       <c r="U480" s="9"/>
       <c r="V480" s="9"/>
       <c r="W480" s="9"/>
-    </row>
-    <row r="481" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X480" s="9"/>
+    </row>
+    <row r="481" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H481" s="7"/>
-      <c r="P481" s="8"/>
       <c r="Q481" s="8"/>
       <c r="R481" s="8"/>
-      <c r="S481" s="9"/>
+      <c r="S481" s="8"/>
       <c r="T481" s="9"/>
       <c r="U481" s="9"/>
       <c r="V481" s="9"/>
       <c r="W481" s="9"/>
-    </row>
-    <row r="482" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X481" s="9"/>
+    </row>
+    <row r="482" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H482" s="7"/>
-      <c r="P482" s="8"/>
       <c r="Q482" s="8"/>
       <c r="R482" s="8"/>
-      <c r="S482" s="9"/>
+      <c r="S482" s="8"/>
       <c r="T482" s="9"/>
       <c r="U482" s="9"/>
       <c r="V482" s="9"/>
       <c r="W482" s="9"/>
-    </row>
-    <row r="483" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X482" s="9"/>
+    </row>
+    <row r="483" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H483" s="7"/>
-      <c r="P483" s="7"/>
-      <c r="Q483" s="8"/>
+      <c r="Q483" s="7"/>
       <c r="R483" s="8"/>
-      <c r="S483" s="9"/>
+      <c r="S483" s="8"/>
       <c r="T483" s="9"/>
       <c r="U483" s="9"/>
       <c r="V483" s="9"/>
       <c r="W483" s="9"/>
-    </row>
-    <row r="484" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X483" s="9"/>
+    </row>
+    <row r="484" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H484" s="7"/>
-      <c r="P484" s="8"/>
       <c r="Q484" s="8"/>
       <c r="R484" s="8"/>
-      <c r="S484" s="9"/>
+      <c r="S484" s="8"/>
       <c r="T484" s="9"/>
       <c r="U484" s="9"/>
       <c r="V484" s="9"/>
       <c r="W484" s="9"/>
-    </row>
-    <row r="485" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X484" s="9"/>
+    </row>
+    <row r="485" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H485" s="7"/>
-      <c r="P485" s="8"/>
       <c r="Q485" s="8"/>
       <c r="R485" s="8"/>
-      <c r="S485" s="9"/>
+      <c r="S485" s="8"/>
       <c r="T485" s="9"/>
       <c r="U485" s="9"/>
       <c r="V485" s="9"/>
       <c r="W485" s="9"/>
-    </row>
-    <row r="486" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X485" s="9"/>
+    </row>
+    <row r="486" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H486" s="7"/>
-      <c r="P486" s="8"/>
       <c r="Q486" s="8"/>
       <c r="R486" s="8"/>
-      <c r="S486" s="9"/>
+      <c r="S486" s="8"/>
       <c r="T486" s="9"/>
       <c r="U486" s="9"/>
       <c r="V486" s="9"/>
       <c r="W486" s="9"/>
-    </row>
-    <row r="487" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X486" s="9"/>
+    </row>
+    <row r="487" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H487" s="7"/>
-      <c r="P487" s="8"/>
       <c r="Q487" s="8"/>
       <c r="R487" s="8"/>
-      <c r="S487" s="9"/>
+      <c r="S487" s="8"/>
       <c r="T487" s="9"/>
       <c r="U487" s="9"/>
       <c r="V487" s="9"/>
       <c r="W487" s="9"/>
-    </row>
-    <row r="488" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X487" s="9"/>
+    </row>
+    <row r="488" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H488" s="7"/>
-      <c r="P488" s="8"/>
       <c r="Q488" s="8"/>
       <c r="R488" s="8"/>
-      <c r="S488" s="9"/>
+      <c r="S488" s="8"/>
       <c r="T488" s="9"/>
       <c r="U488" s="9"/>
       <c r="V488" s="9"/>
       <c r="W488" s="9"/>
-    </row>
-    <row r="489" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X488" s="9"/>
+    </row>
+    <row r="489" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H489" s="7"/>
-      <c r="P489" s="8"/>
       <c r="Q489" s="8"/>
       <c r="R489" s="8"/>
-      <c r="S489" s="9"/>
+      <c r="S489" s="8"/>
       <c r="T489" s="9"/>
       <c r="U489" s="9"/>
       <c r="V489" s="9"/>
       <c r="W489" s="9"/>
-    </row>
-    <row r="490" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X489" s="9"/>
+    </row>
+    <row r="490" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H490" s="7"/>
-      <c r="P490" s="8"/>
       <c r="Q490" s="8"/>
       <c r="R490" s="8"/>
-      <c r="S490" s="9"/>
+      <c r="S490" s="8"/>
       <c r="T490" s="9"/>
       <c r="U490" s="9"/>
       <c r="V490" s="9"/>
       <c r="W490" s="9"/>
-    </row>
-    <row r="491" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X490" s="9"/>
+    </row>
+    <row r="491" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H491" s="7"/>
-      <c r="P491" s="8"/>
       <c r="Q491" s="8"/>
       <c r="R491" s="8"/>
-      <c r="S491" s="9"/>
+      <c r="S491" s="8"/>
       <c r="T491" s="9"/>
       <c r="U491" s="9"/>
       <c r="V491" s="9"/>
       <c r="W491" s="9"/>
-    </row>
-    <row r="492" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X491" s="9"/>
+    </row>
+    <row r="492" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H492" s="7"/>
-      <c r="P492" s="8"/>
       <c r="Q492" s="8"/>
       <c r="R492" s="8"/>
-      <c r="S492" s="9"/>
+      <c r="S492" s="8"/>
       <c r="T492" s="9"/>
       <c r="U492" s="9"/>
       <c r="V492" s="9"/>
       <c r="W492" s="9"/>
-    </row>
-    <row r="493" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X492" s="9"/>
+    </row>
+    <row r="493" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H493" s="7"/>
-      <c r="P493" s="8"/>
       <c r="Q493" s="8"/>
       <c r="R493" s="8"/>
-      <c r="S493" s="9"/>
+      <c r="S493" s="8"/>
       <c r="T493" s="9"/>
       <c r="U493" s="9"/>
       <c r="V493" s="9"/>
       <c r="W493" s="9"/>
-    </row>
-    <row r="494" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X493" s="9"/>
+    </row>
+    <row r="494" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H494" s="7"/>
-      <c r="P494" s="8"/>
       <c r="Q494" s="8"/>
       <c r="R494" s="8"/>
-      <c r="S494" s="9"/>
+      <c r="S494" s="8"/>
       <c r="T494" s="9"/>
       <c r="U494" s="9"/>
       <c r="V494" s="9"/>
       <c r="W494" s="9"/>
-    </row>
-    <row r="495" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X494" s="9"/>
+    </row>
+    <row r="495" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H495" s="7"/>
-      <c r="P495" s="8"/>
       <c r="Q495" s="8"/>
       <c r="R495" s="8"/>
-      <c r="S495" s="9"/>
+      <c r="S495" s="8"/>
       <c r="T495" s="9"/>
       <c r="U495" s="9"/>
       <c r="V495" s="9"/>
       <c r="W495" s="9"/>
-    </row>
-    <row r="496" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X495" s="9"/>
+    </row>
+    <row r="496" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H496" s="7"/>
-      <c r="P496" s="8"/>
       <c r="Q496" s="8"/>
       <c r="R496" s="8"/>
-      <c r="S496" s="9"/>
+      <c r="S496" s="8"/>
       <c r="T496" s="9"/>
       <c r="U496" s="9"/>
       <c r="V496" s="9"/>
       <c r="W496" s="9"/>
-    </row>
-    <row r="497" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X496" s="9"/>
+    </row>
+    <row r="497" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H497" s="7"/>
-      <c r="P497" s="8"/>
       <c r="Q497" s="8"/>
       <c r="R497" s="8"/>
-      <c r="S497" s="9"/>
+      <c r="S497" s="8"/>
       <c r="T497" s="9"/>
       <c r="U497" s="9"/>
       <c r="V497" s="9"/>
       <c r="W497" s="9"/>
-    </row>
-    <row r="498" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X497" s="9"/>
+    </row>
+    <row r="498" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H498" s="7"/>
-      <c r="P498" s="8"/>
       <c r="Q498" s="8"/>
       <c r="R498" s="8"/>
-      <c r="S498" s="9"/>
+      <c r="S498" s="8"/>
       <c r="T498" s="9"/>
       <c r="U498" s="9"/>
       <c r="V498" s="9"/>
       <c r="W498" s="9"/>
-    </row>
-    <row r="499" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X498" s="9"/>
+    </row>
+    <row r="499" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H499" s="7"/>
-      <c r="P499" s="8"/>
       <c r="Q499" s="8"/>
       <c r="R499" s="8"/>
-      <c r="S499" s="9"/>
+      <c r="S499" s="8"/>
       <c r="T499" s="9"/>
       <c r="U499" s="9"/>
       <c r="V499" s="9"/>
       <c r="W499" s="9"/>
-    </row>
-    <row r="500" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X499" s="9"/>
+    </row>
+    <row r="500" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H500" s="7"/>
-      <c r="P500" s="8"/>
       <c r="Q500" s="8"/>
       <c r="R500" s="8"/>
-      <c r="S500" s="9"/>
+      <c r="S500" s="8"/>
       <c r="T500" s="9"/>
       <c r="U500" s="9"/>
       <c r="V500" s="9"/>
       <c r="W500" s="9"/>
-    </row>
-    <row r="501" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X500" s="9"/>
+    </row>
+    <row r="501" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H501" s="7"/>
-      <c r="P501" s="8"/>
       <c r="Q501" s="8"/>
       <c r="R501" s="8"/>
-      <c r="S501" s="9"/>
+      <c r="S501" s="8"/>
       <c r="T501" s="9"/>
       <c r="U501" s="9"/>
       <c r="V501" s="9"/>
       <c r="W501" s="9"/>
-    </row>
-    <row r="502" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X501" s="9"/>
+    </row>
+    <row r="502" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H502" s="7"/>
-      <c r="P502" s="8"/>
       <c r="Q502" s="8"/>
       <c r="R502" s="8"/>
-      <c r="S502" s="9"/>
+      <c r="S502" s="8"/>
       <c r="T502" s="9"/>
       <c r="U502" s="9"/>
       <c r="V502" s="9"/>
       <c r="W502" s="9"/>
-    </row>
-    <row r="503" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X502" s="9"/>
+    </row>
+    <row r="503" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H503" s="7"/>
-      <c r="P503" s="8"/>
       <c r="Q503" s="8"/>
       <c r="R503" s="8"/>
-      <c r="S503" s="9"/>
+      <c r="S503" s="8"/>
       <c r="T503" s="9"/>
       <c r="U503" s="9"/>
       <c r="V503" s="9"/>
       <c r="W503" s="9"/>
-    </row>
-    <row r="504" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X503" s="9"/>
+    </row>
+    <row r="504" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H504" s="7"/>
-      <c r="P504" s="8"/>
       <c r="Q504" s="8"/>
       <c r="R504" s="8"/>
-      <c r="S504" s="9"/>
+      <c r="S504" s="8"/>
       <c r="T504" s="9"/>
       <c r="U504" s="9"/>
       <c r="V504" s="9"/>
       <c r="W504" s="9"/>
-    </row>
-    <row r="505" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X504" s="9"/>
+    </row>
+    <row r="505" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H505" s="7"/>
-      <c r="P505" s="8"/>
       <c r="Q505" s="8"/>
       <c r="R505" s="8"/>
-      <c r="S505" s="9"/>
+      <c r="S505" s="8"/>
       <c r="T505" s="9"/>
       <c r="U505" s="9"/>
       <c r="V505" s="9"/>
       <c r="W505" s="9"/>
-    </row>
-    <row r="506" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X505" s="9"/>
+    </row>
+    <row r="506" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H506" s="7"/>
-      <c r="P506" s="8"/>
       <c r="Q506" s="8"/>
       <c r="R506" s="8"/>
-      <c r="S506" s="9"/>
+      <c r="S506" s="8"/>
       <c r="T506" s="9"/>
       <c r="U506" s="9"/>
       <c r="V506" s="9"/>
       <c r="W506" s="9"/>
-    </row>
-    <row r="507" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X506" s="9"/>
+    </row>
+    <row r="507" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H507" s="7"/>
-      <c r="P507" s="8"/>
       <c r="Q507" s="8"/>
       <c r="R507" s="8"/>
-      <c r="S507" s="9"/>
+      <c r="S507" s="8"/>
       <c r="T507" s="9"/>
       <c r="U507" s="9"/>
       <c r="V507" s="9"/>
       <c r="W507" s="9"/>
-    </row>
-    <row r="508" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X507" s="9"/>
+    </row>
+    <row r="508" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H508" s="7"/>
-      <c r="P508" s="8"/>
       <c r="Q508" s="8"/>
       <c r="R508" s="8"/>
-      <c r="S508" s="9"/>
+      <c r="S508" s="8"/>
       <c r="T508" s="9"/>
       <c r="U508" s="9"/>
       <c r="V508" s="9"/>
       <c r="W508" s="9"/>
-    </row>
-    <row r="509" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X508" s="9"/>
+    </row>
+    <row r="509" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H509" s="7"/>
-      <c r="P509" s="8"/>
       <c r="Q509" s="8"/>
       <c r="R509" s="8"/>
-      <c r="S509" s="9"/>
+      <c r="S509" s="8"/>
       <c r="T509" s="9"/>
       <c r="U509" s="9"/>
       <c r="V509" s="9"/>
       <c r="W509" s="9"/>
-    </row>
-    <row r="510" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X509" s="9"/>
+    </row>
+    <row r="510" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H510" s="7"/>
-      <c r="P510" s="8"/>
       <c r="Q510" s="8"/>
       <c r="R510" s="8"/>
-      <c r="S510" s="9"/>
+      <c r="S510" s="8"/>
       <c r="T510" s="9"/>
       <c r="U510" s="9"/>
       <c r="V510" s="9"/>
       <c r="W510" s="9"/>
-    </row>
-    <row r="511" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X510" s="9"/>
+    </row>
+    <row r="511" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H511" s="7"/>
-      <c r="P511" s="8"/>
       <c r="Q511" s="8"/>
       <c r="R511" s="8"/>
-      <c r="S511" s="9"/>
+      <c r="S511" s="8"/>
       <c r="T511" s="9"/>
       <c r="U511" s="9"/>
       <c r="V511" s="9"/>
       <c r="W511" s="9"/>
-    </row>
-    <row r="512" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X511" s="9"/>
+    </row>
+    <row r="512" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H512" s="7"/>
-      <c r="P512" s="8"/>
       <c r="Q512" s="8"/>
       <c r="R512" s="8"/>
-      <c r="S512" s="9"/>
+      <c r="S512" s="8"/>
       <c r="T512" s="9"/>
       <c r="U512" s="9"/>
       <c r="V512" s="9"/>
       <c r="W512" s="9"/>
-    </row>
-    <row r="513" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X512" s="9"/>
+    </row>
+    <row r="513" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H513" s="7"/>
-      <c r="P513" s="8"/>
       <c r="Q513" s="8"/>
       <c r="R513" s="8"/>
-      <c r="S513" s="9"/>
+      <c r="S513" s="8"/>
       <c r="T513" s="9"/>
       <c r="U513" s="9"/>
       <c r="V513" s="9"/>
       <c r="W513" s="9"/>
-    </row>
-    <row r="514" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X513" s="9"/>
+    </row>
+    <row r="514" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H514" s="7"/>
-      <c r="P514" s="8"/>
       <c r="Q514" s="8"/>
       <c r="R514" s="8"/>
-      <c r="S514" s="9"/>
+      <c r="S514" s="8"/>
       <c r="T514" s="9"/>
       <c r="U514" s="9"/>
       <c r="V514" s="9"/>
       <c r="W514" s="9"/>
-    </row>
-    <row r="515" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X514" s="9"/>
+    </row>
+    <row r="515" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H515" s="7"/>
-      <c r="P515" s="8"/>
       <c r="Q515" s="8"/>
       <c r="R515" s="8"/>
-      <c r="S515" s="9"/>
+      <c r="S515" s="8"/>
       <c r="T515" s="9"/>
       <c r="U515" s="9"/>
       <c r="V515" s="9"/>
       <c r="W515" s="9"/>
-    </row>
-    <row r="516" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X515" s="9"/>
+    </row>
+    <row r="516" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H516" s="7"/>
-      <c r="P516" s="8"/>
       <c r="Q516" s="8"/>
       <c r="R516" s="8"/>
-      <c r="S516" s="9"/>
+      <c r="S516" s="8"/>
       <c r="T516" s="9"/>
       <c r="U516" s="9"/>
       <c r="V516" s="9"/>
       <c r="W516" s="9"/>
-    </row>
-    <row r="517" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X516" s="9"/>
+    </row>
+    <row r="517" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H517" s="7"/>
-      <c r="P517" s="8"/>
       <c r="Q517" s="8"/>
       <c r="R517" s="8"/>
-      <c r="S517" s="9"/>
+      <c r="S517" s="8"/>
       <c r="T517" s="9"/>
       <c r="U517" s="9"/>
       <c r="V517" s="9"/>
       <c r="W517" s="9"/>
-    </row>
-    <row r="518" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X517" s="9"/>
+    </row>
+    <row r="518" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H518" s="7"/>
-      <c r="P518" s="8"/>
       <c r="Q518" s="8"/>
       <c r="R518" s="8"/>
-      <c r="S518" s="9"/>
+      <c r="S518" s="8"/>
       <c r="T518" s="9"/>
       <c r="U518" s="9"/>
       <c r="V518" s="9"/>
       <c r="W518" s="9"/>
-    </row>
-    <row r="519" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X518" s="9"/>
+    </row>
+    <row r="519" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H519" s="7"/>
-      <c r="P519" s="8"/>
       <c r="Q519" s="8"/>
       <c r="R519" s="8"/>
-      <c r="S519" s="9"/>
+      <c r="S519" s="8"/>
       <c r="T519" s="9"/>
       <c r="U519" s="9"/>
       <c r="V519" s="9"/>
       <c r="W519" s="9"/>
-    </row>
-    <row r="520" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X519" s="9"/>
+    </row>
+    <row r="520" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H520" s="7"/>
-      <c r="P520" s="8"/>
       <c r="Q520" s="8"/>
       <c r="R520" s="8"/>
-      <c r="S520" s="9"/>
+      <c r="S520" s="8"/>
       <c r="T520" s="9"/>
       <c r="U520" s="9"/>
       <c r="V520" s="9"/>
       <c r="W520" s="9"/>
-    </row>
-    <row r="521" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X520" s="9"/>
+    </row>
+    <row r="521" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H521" s="7"/>
-      <c r="P521" s="8"/>
       <c r="Q521" s="8"/>
       <c r="R521" s="8"/>
-      <c r="S521" s="9"/>
+      <c r="S521" s="8"/>
       <c r="T521" s="9"/>
       <c r="U521" s="9"/>
       <c r="V521" s="9"/>
       <c r="W521" s="9"/>
-    </row>
-    <row r="522" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X521" s="9"/>
+    </row>
+    <row r="522" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H522" s="7"/>
-      <c r="P522" s="8"/>
       <c r="Q522" s="8"/>
       <c r="R522" s="8"/>
-      <c r="S522" s="9"/>
+      <c r="S522" s="8"/>
       <c r="T522" s="9"/>
       <c r="U522" s="9"/>
       <c r="V522" s="9"/>
       <c r="W522" s="9"/>
-    </row>
-    <row r="523" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X522" s="9"/>
+    </row>
+    <row r="523" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H523" s="7"/>
-      <c r="P523" s="8"/>
       <c r="Q523" s="8"/>
       <c r="R523" s="8"/>
-      <c r="S523" s="9"/>
+      <c r="S523" s="8"/>
       <c r="T523" s="9"/>
       <c r="U523" s="9"/>
       <c r="V523" s="9"/>
       <c r="W523" s="9"/>
-    </row>
-    <row r="524" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X523" s="9"/>
+    </row>
+    <row r="524" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H524" s="7"/>
-      <c r="P524" s="8"/>
       <c r="Q524" s="8"/>
       <c r="R524" s="8"/>
-      <c r="S524" s="9"/>
+      <c r="S524" s="8"/>
       <c r="T524" s="9"/>
       <c r="U524" s="9"/>
       <c r="V524" s="9"/>
       <c r="W524" s="9"/>
-    </row>
-    <row r="525" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X524" s="9"/>
+    </row>
+    <row r="525" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H525" s="7"/>
-      <c r="P525" s="8"/>
       <c r="Q525" s="8"/>
       <c r="R525" s="8"/>
-      <c r="S525" s="9"/>
+      <c r="S525" s="8"/>
       <c r="T525" s="9"/>
       <c r="U525" s="9"/>
       <c r="V525" s="9"/>
       <c r="W525" s="9"/>
-    </row>
-    <row r="526" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X525" s="9"/>
+    </row>
+    <row r="526" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H526" s="7"/>
-      <c r="P526" s="8"/>
       <c r="Q526" s="8"/>
       <c r="R526" s="8"/>
-      <c r="S526" s="9"/>
+      <c r="S526" s="8"/>
       <c r="T526" s="9"/>
       <c r="U526" s="9"/>
       <c r="V526" s="9"/>
       <c r="W526" s="9"/>
-    </row>
-    <row r="527" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X526" s="9"/>
+    </row>
+    <row r="527" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H527" s="7"/>
-      <c r="P527" s="8"/>
       <c r="Q527" s="8"/>
       <c r="R527" s="8"/>
-      <c r="S527" s="9"/>
+      <c r="S527" s="8"/>
       <c r="T527" s="9"/>
       <c r="U527" s="9"/>
       <c r="V527" s="9"/>
       <c r="W527" s="9"/>
-    </row>
-    <row r="528" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X527" s="9"/>
+    </row>
+    <row r="528" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H528" s="7"/>
-      <c r="P528" s="8"/>
       <c r="Q528" s="8"/>
       <c r="R528" s="8"/>
-      <c r="S528" s="9"/>
+      <c r="S528" s="8"/>
       <c r="T528" s="9"/>
       <c r="U528" s="9"/>
       <c r="V528" s="9"/>
       <c r="W528" s="9"/>
-    </row>
-    <row r="529" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X528" s="9"/>
+    </row>
+    <row r="529" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H529" s="7"/>
-      <c r="P529" s="8"/>
       <c r="Q529" s="8"/>
       <c r="R529" s="8"/>
-      <c r="S529" s="9"/>
+      <c r="S529" s="8"/>
       <c r="T529" s="9"/>
       <c r="U529" s="9"/>
       <c r="V529" s="9"/>
       <c r="W529" s="9"/>
-    </row>
-    <row r="530" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X529" s="9"/>
+    </row>
+    <row r="530" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H530" s="7"/>
-      <c r="P530" s="8"/>
       <c r="Q530" s="8"/>
       <c r="R530" s="8"/>
-      <c r="S530" s="9"/>
+      <c r="S530" s="8"/>
       <c r="T530" s="9"/>
       <c r="U530" s="9"/>
       <c r="V530" s="9"/>
       <c r="W530" s="9"/>
-    </row>
-    <row r="531" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X530" s="9"/>
+    </row>
+    <row r="531" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H531" s="7"/>
-      <c r="P531" s="8"/>
       <c r="Q531" s="8"/>
       <c r="R531" s="8"/>
-      <c r="S531" s="9"/>
+      <c r="S531" s="8"/>
       <c r="T531" s="9"/>
       <c r="U531" s="9"/>
       <c r="V531" s="9"/>
       <c r="W531" s="9"/>
-    </row>
-    <row r="532" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P532" s="10"/>
-      <c r="S532" s="9"/>
+      <c r="X531" s="9"/>
+    </row>
+    <row r="532" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q532" s="10"/>
       <c r="T532" s="9"/>
       <c r="U532" s="9"/>
       <c r="V532" s="9"/>
       <c r="W532" s="9"/>
+      <c r="X532" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
